--- a/3 - RQ/Esterni/Piano Di Progetto/GANTT-EXCEL/SWE-PianoDiLavoro.xlsx
+++ b/3 - RQ/Esterni/Piano Di Progetto/GANTT-EXCEL/SWE-PianoDiLavoro.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fbazzerl/Desktop/SWE/Monolith GitHub/GANTT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fbazzerl/Desktop/SWE/Monolith GitHub/documenti/3 - RQ/Esterni/Piano Di Progetto/GANTT-EXCEL/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30785,8 +30785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:K109"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/3 - RQ/Esterni/Piano Di Progetto/GANTT-EXCEL/SWE-PianoDiLavoro.xlsx
+++ b/3 - RQ/Esterni/Piano Di Progetto/GANTT-EXCEL/SWE-PianoDiLavoro.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13960" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="ARM" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,9 @@
     <sheet name="PA" sheetId="3" r:id="rId4"/>
     <sheet name="PD" sheetId="4" r:id="rId5"/>
     <sheet name="COD" sheetId="5" r:id="rId6"/>
-    <sheet name="VV" sheetId="6" r:id="rId7"/>
-    <sheet name="Tot" sheetId="7" r:id="rId8"/>
+    <sheet name="PDCOD" sheetId="9" r:id="rId7"/>
+    <sheet name="VV" sheetId="6" r:id="rId8"/>
+    <sheet name="Tot" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="32">
   <si>
     <t>Francesco Bazzerla</t>
   </si>
@@ -252,22 +253,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -301,67 +302,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="it-IT"/>
-              <a:t>Analisi dei Requisiti</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="it-IT" baseline="0"/>
-              <a:t> di Massima</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -882,11 +823,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2135420032"/>
-        <c:axId val="-2137049216"/>
+        <c:axId val="2143034080"/>
+        <c:axId val="2143037632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2135420032"/>
+        <c:axId val="2143034080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -929,7 +870,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2137049216"/>
+        <c:crossAx val="2143037632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -937,7 +878,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2137049216"/>
+        <c:axId val="2143037632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -988,7 +929,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2135420032"/>
+        <c:crossAx val="2143034080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1515,63 +1456,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="it-IT"/>
-              <a:t>Progettazione in Dettaglio</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -2092,11 +1977,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2135683456"/>
-        <c:axId val="-2135687008"/>
+        <c:axId val="2143456768"/>
+        <c:axId val="2143460304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2135683456"/>
+        <c:axId val="2143456768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2139,7 +2024,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2135687008"/>
+        <c:crossAx val="2143460304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2147,7 +2032,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2135687008"/>
+        <c:axId val="2143460304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2198,7 +2083,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2135683456"/>
+        <c:crossAx val="2143456768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3166,63 +3051,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="it-IT"/>
-              <a:t>Codifica</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -3743,11 +3572,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2135834288"/>
-        <c:axId val="-2135837840"/>
+        <c:axId val="2143592656"/>
+        <c:axId val="2143596192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2135834288"/>
+        <c:axId val="2143592656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3790,7 +3619,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2135837840"/>
+        <c:crossAx val="2143596192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3798,7 +3627,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2135837840"/>
+        <c:axId val="2143596192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3849,7 +3678,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2135834288"/>
+        <c:crossAx val="2143592656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4978,63 +4807,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="it-IT"/>
-              <a:t>Verifica e Validazione Finale</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -5046,7 +4819,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>VV!$B$1</c:f>
+              <c:f>PDCOD!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5067,7 +4840,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>VV!$A$2:$A$8</c:f>
+              <c:f>PDCOD!$A$2:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -5096,30 +4869,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>VV!$B$2:$B$8</c:f>
+              <c:f>PDCOD!$B$2:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5130,7 +4903,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>VV!$C$1</c:f>
+              <c:f>PDCOD!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5151,7 +4924,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>VV!$A$2:$A$8</c:f>
+              <c:f>PDCOD!$A$2:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -5180,7 +4953,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>VV!$C$2:$C$8</c:f>
+              <c:f>PDCOD!$C$2:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -5191,7 +4964,7 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.0</c:v>
@@ -5200,10 +4973,10 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5214,7 +4987,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>VV!$D$1</c:f>
+              <c:f>PDCOD!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5235,7 +5008,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>VV!$A$2:$A$8</c:f>
+              <c:f>PDCOD!$A$2:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -5264,7 +5037,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>VV!$D$2:$D$8</c:f>
+              <c:f>PDCOD!$D$2:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -5298,7 +5071,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>VV!$E$1</c:f>
+              <c:f>PDCOD!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5319,7 +5092,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>VV!$A$2:$A$8</c:f>
+              <c:f>PDCOD!$A$2:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -5348,30 +5121,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>VV!$E$2:$E$8</c:f>
+              <c:f>PDCOD!$E$2:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.0</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5382,7 +5155,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>VV!$F$1</c:f>
+              <c:f>PDCOD!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5403,7 +5176,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>VV!$A$2:$A$8</c:f>
+              <c:f>PDCOD!$A$2:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -5432,30 +5205,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>VV!$F$2:$F$8</c:f>
+              <c:f>PDCOD!$F$2:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0</c:v>
+                  <c:v>23.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0</c:v>
+                  <c:v>23.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.0</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5466,7 +5239,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>VV!$G$1</c:f>
+              <c:f>PDCOD!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5487,7 +5260,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>VV!$A$2:$A$8</c:f>
+              <c:f>PDCOD!$A$2:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -5516,30 +5289,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>VV!$G$2:$G$8</c:f>
+              <c:f>PDCOD!$G$2:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>10.0</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.0</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.0</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.0</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.0</c:v>
+                  <c:v>23.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.0</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5555,11 +5328,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2134488176"/>
-        <c:axId val="-2134484640"/>
+        <c:axId val="-2094598368"/>
+        <c:axId val="-2101384144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2134488176"/>
+        <c:axId val="-2094598368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5602,7 +5375,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2134484640"/>
+        <c:crossAx val="-2101384144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5610,7 +5383,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2134484640"/>
+        <c:axId val="-2101384144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5661,7 +5434,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2134488176"/>
+        <c:crossAx val="-2094598368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5743,6 +5516,2090 @@
 </file>
 
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="265E91"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0552151788836503"/>
+                  <c:y val="0.139979693896288"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>PDCOD!$A$19:$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Project Manager </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Amministratore </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Progettista </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Programmatore </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Verificatore </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PDCOD!$B$19:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>86.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>137.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>119.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="7"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="9"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="265E91"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0973355603276863"/>
+                  <c:y val="0.190735606718362"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>PDCOD!$A$36:$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Project Manager </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Amministratore </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Progettista </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Programmatore </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Verificatore </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PDCOD!$B$36:$B$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>540.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>260.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1892.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2055.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1785.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="7"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="9"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0718434159144741"/>
+          <c:y val="0.0442260442260442"/>
+          <c:w val="0.612745098039216"/>
+          <c:h val="0.921375921375921"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ARM!$B$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ore</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>ARM!$A$47:$A$54</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Project Manager </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Amministratore </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Analista </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Verificatore </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ARM!$B$47:$B$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="7"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>VV!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>VV!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Francesco Bazzerla</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Riccardo Montagnin</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Stefano Lia</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Diego Cavestro</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Luca Dario</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Manuel Turetta</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Nicolò Dovico</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>VV!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>VV!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>VV!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Francesco Bazzerla</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Riccardo Montagnin</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Stefano Lia</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Diego Cavestro</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Luca Dario</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Manuel Turetta</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Nicolò Dovico</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>VV!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>VV!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>VV!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Francesco Bazzerla</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Riccardo Montagnin</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Stefano Lia</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Diego Cavestro</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Luca Dario</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Manuel Turetta</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Nicolò Dovico</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>VV!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>VV!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>VV!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Francesco Bazzerla</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Riccardo Montagnin</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Stefano Lia</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Diego Cavestro</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Luca Dario</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Manuel Turetta</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Nicolò Dovico</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>VV!$E$2:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>VV!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>VV!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Francesco Bazzerla</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Riccardo Montagnin</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Stefano Lia</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Diego Cavestro</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Luca Dario</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Manuel Turetta</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Nicolò Dovico</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>VV!$F$2:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>VV!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>VV!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Francesco Bazzerla</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Riccardo Montagnin</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Stefano Lia</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Diego Cavestro</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Luca Dario</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Manuel Turetta</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Nicolò Dovico</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>VV!$G$2:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="2142217248"/>
+        <c:axId val="2142220784"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2142217248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2142220784"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2142220784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2142217248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -6233,7 +8090,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -6712,9 +8569,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -6877,429 +8732,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.0718434159144741"/>
-          <c:y val="0.0442260442260442"/>
-          <c:w val="0.612745098039216"/>
-          <c:h val="0.921375921375921"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ARM!$B$46</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Ore</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="7"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:pattFill prst="pct75">
-                <a:fgClr>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:bgClr>
-              </a:pattFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="it-IT"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>ARM!$A$47:$A$54</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Project Manager </c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Amministratore </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Analista </c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Verificatore </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>ARM!$B$47:$B$54</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>75.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>65.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="ctr"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:legendEntry>
-        <c:idx val="1"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="3"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="5"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="7"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="39000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="25000"/>
-          <a:lumOff val="75000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -7913,7 +9346,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -8485,7 +9918,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -8499,68 +9932,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="it-IT"/>
-              <a:t>Ore</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="it-IT" baseline="0"/>
-              <a:t> totali rendicontate per membro</a:t>
-            </a:r>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -9081,11 +10453,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2133460032"/>
-        <c:axId val="-2133456464"/>
+        <c:axId val="2144587488"/>
+        <c:axId val="2144591056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2133460032"/>
+        <c:axId val="2144587488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9128,7 +10500,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2133456464"/>
+        <c:crossAx val="2144591056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9136,7 +10508,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2133456464"/>
+        <c:axId val="2144591056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9187,7 +10559,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2133460032"/>
+        <c:crossAx val="2144587488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10323,11 +11695,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2135196144"/>
-        <c:axId val="-2135192608"/>
+        <c:axId val="2142019376"/>
+        <c:axId val="2142022912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2135196144"/>
+        <c:axId val="2142019376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10370,7 +11742,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2135192608"/>
+        <c:crossAx val="2142022912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10378,7 +11750,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2135192608"/>
+        <c:axId val="2142022912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10429,7 +11801,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2135196144"/>
+        <c:crossAx val="2142019376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10690,7 +12062,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -10766,11 +12137,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="65"/>
-        <c:axId val="-2135231136"/>
-        <c:axId val="-2135227808"/>
+        <c:axId val="2143202256"/>
+        <c:axId val="2143205664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2135231136"/>
+        <c:axId val="2143202256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10808,7 +12179,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2135227808"/>
+        <c:crossAx val="2143205664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10816,7 +12187,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2135227808"/>
+        <c:axId val="2143205664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10879,7 +12250,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2135231136"/>
+        <c:crossAx val="2143202256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10936,63 +12307,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="it-IT"/>
-              <a:t>Analisi dei Requisiti in Dettaglio</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -11513,11 +12828,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2135082192"/>
-        <c:axId val="-2135078656"/>
+        <c:axId val="2140454096"/>
+        <c:axId val="2140457632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2135082192"/>
+        <c:axId val="2140454096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11560,7 +12875,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2135078656"/>
+        <c:crossAx val="2140457632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11568,7 +12883,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2135078656"/>
+        <c:axId val="2140457632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11619,7 +12934,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2135082192"/>
+        <c:crossAx val="2140454096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12136,63 +13451,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="it-IT"/>
-              <a:t>Progettazione Architetturale</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -12713,11 +13972,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2134969440"/>
-        <c:axId val="-2134965904"/>
+        <c:axId val="2143258352"/>
+        <c:axId val="2143261888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2134969440"/>
+        <c:axId val="2143258352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12760,7 +14019,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2134965904"/>
+        <c:crossAx val="2143261888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12768,7 +14027,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2134965904"/>
+        <c:axId val="2143261888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12819,7 +14078,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2134969440"/>
+        <c:crossAx val="2143258352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13943,6 +15202,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors23.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors24.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors25.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -21052,6 +22431,511 @@
 </file>
 
 <file path=xl/charts/style20.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style21.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -21652,7 +23536,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style22.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -22253,7 +24137,1209 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style23.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style24.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style25.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -26724,6 +29810,101 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Grafico 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>86360</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>425450</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Grafico 6"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -27919,6 +31100,101 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Grafico 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>69850</xdr:colOff>
       <xdr:row>11</xdr:row>
@@ -27993,101 +31269,6 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Grafico 3"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Grafico 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>146050</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>86360</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Grafico 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>82550</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>425450</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Grafico 6"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -28370,8 +31551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H92"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A80" zoomScale="168" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91"/>
+    <sheetView showRuler="0" topLeftCell="A71" zoomScale="83" workbookViewId="0">
+      <selection activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28611,7 +31792,7 @@
         <f>SUM(G2:G8)</f>
         <v>65</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="6">
         <f>SUM(H2:H8)</f>
         <v>179</v>
       </c>
@@ -28726,33 +31907,33 @@
       <c r="B90" s="7"/>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="6"/>
+      <c r="A91" s="9"/>
       <c r="B91" s="7"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="6"/>
+      <c r="A92" s="9"/>
       <c r="B92" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
     <mergeCell ref="A47:A48"/>
     <mergeCell ref="B47:B48"/>
     <mergeCell ref="A49:A50"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="A51:A52"/>
     <mergeCell ref="B51:B52"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -28820,8 +32001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A45" zoomScale="137" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView showRuler="0" topLeftCell="A43" zoomScale="75" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29061,7 +32242,7 @@
         <f>SUM(G2:G8)</f>
         <v>14</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="6">
         <f>SUM(H2:H8)</f>
         <v>50</v>
       </c>
@@ -29142,8 +32323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H87"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A78" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+    <sheetView showRuler="0" topLeftCell="A76" zoomScale="125" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29383,7 +32564,7 @@
         <f>SUM(G2:G8)</f>
         <v>65</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="6">
         <f>SUM(H2:H8)</f>
         <v>198</v>
       </c>
@@ -29494,6 +32675,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:B83"/>
     <mergeCell ref="A49:A50"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="A43:A44"/>
@@ -29502,14 +32691,6 @@
     <mergeCell ref="B45:B46"/>
     <mergeCell ref="A47:A48"/>
     <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:B83"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -29520,8 +32701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A83" zoomScale="124" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+    <sheetView showRuler="0" zoomScale="124" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29761,7 +32942,7 @@
         <f>SUM(G2:G8)</f>
         <v>42</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="6">
         <f>SUM(H2:H8)</f>
         <v>121</v>
       </c>
@@ -29872,6 +33053,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B88:B89"/>
     <mergeCell ref="A55:A56"/>
     <mergeCell ref="B55:B56"/>
     <mergeCell ref="A49:A50"/>
@@ -29880,14 +33069,6 @@
     <mergeCell ref="B51:B52"/>
     <mergeCell ref="A53:A54"/>
     <mergeCell ref="B53:B54"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="B88:B89"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -29896,10 +33077,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H86"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A76" zoomScale="135" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+    <sheetView showRuler="0" zoomScale="135" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -30124,31 +33305,31 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9">
-        <f>SUM(B2:B8)</f>
+        <f t="shared" ref="B9:H9" si="1">SUM(B2:B8)</f>
         <v>11</v>
       </c>
       <c r="C9">
-        <f>SUM(C2:C8)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="D9">
-        <f>SUM(D2:D8)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E9">
-        <f>SUM(E2:E8)</f>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="F9">
-        <f>SUM(F2:F8)</f>
+        <f t="shared" si="1"/>
         <v>137</v>
       </c>
       <c r="G9">
-        <f>SUM(G2:G8)</f>
+        <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="H9" s="13">
-        <f>SUM(H2:H8)</f>
+      <c r="H9" s="6">
+        <f t="shared" si="1"/>
         <v>252</v>
       </c>
     </row>
@@ -30278,6 +33459,7 @@
         <v>18</v>
       </c>
       <c r="B85" s="7">
+        <f>1155</f>
         <v>1155</v>
       </c>
     </row>
@@ -30285,14 +33467,50 @@
       <c r="A86" s="8"/>
       <c r="B86" s="7"/>
     </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B97" s="7">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B98" s="7"/>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B99" s="7">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B100" s="7"/>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B101" s="7">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B102" s="7"/>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B103" s="7">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B104" s="7"/>
+    </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
+  <mergeCells count="24">
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
     <mergeCell ref="A77:A78"/>
     <mergeCell ref="B77:B78"/>
     <mergeCell ref="A79:A80"/>
@@ -30301,12 +33519,12 @@
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="A51:A52"/>
     <mergeCell ref="B51:B52"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -30315,10 +33533,421 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>15</v>
+      </c>
+      <c r="F2" s="4">
+        <v>22</v>
+      </c>
+      <c r="G2" s="4">
+        <v>14</v>
+      </c>
+      <c r="H2" s="4">
+        <f>SUM(B2:G2)</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4">
+        <v>16</v>
+      </c>
+      <c r="G3" s="4">
+        <v>28</v>
+      </c>
+      <c r="H3" s="4">
+        <f t="shared" ref="H3:H8" si="0">SUM(B3:G3)</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>16</v>
+      </c>
+      <c r="F4" s="4">
+        <v>19</v>
+      </c>
+      <c r="G4" s="4">
+        <v>11</v>
+      </c>
+      <c r="H4" s="4">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>14</v>
+      </c>
+      <c r="F5" s="4">
+        <v>14</v>
+      </c>
+      <c r="G5" s="4">
+        <v>22</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>7</v>
+      </c>
+      <c r="F6" s="4">
+        <v>23</v>
+      </c>
+      <c r="G6" s="4">
+        <v>23</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>10</v>
+      </c>
+      <c r="F7" s="4">
+        <v>23</v>
+      </c>
+      <c r="G7" s="4">
+        <v>18</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>9</v>
+      </c>
+      <c r="C8" s="4">
+        <v>6</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>15</v>
+      </c>
+      <c r="F8" s="4">
+        <v>20</v>
+      </c>
+      <c r="G8" s="4">
+        <v>3</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <f t="shared" ref="B9:H9" si="1">SUM(B2:B8)</f>
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>137</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>119</v>
+      </c>
+      <c r="H9" s="6">
+        <f t="shared" si="1"/>
+        <v>373</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="7">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="7">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="7">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="7">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="8"/>
+      <c r="B37" s="7"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="7">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="8"/>
+      <c r="B39" s="7"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" s="7">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="8"/>
+      <c r="B41" s="7"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" s="7">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="8"/>
+      <c r="B43" s="7"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" s="7">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="8"/>
+      <c r="B45" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A67" zoomScale="113" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView showRuler="0" topLeftCell="A71" zoomScale="113" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -30543,31 +34172,31 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9">
-        <f>SUM(B2:B8)</f>
+        <f t="shared" ref="B9:H9" si="1">SUM(B2:B8)</f>
         <v>14</v>
       </c>
       <c r="C9">
-        <f>SUM(C2:C8)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="D9">
-        <f>SUM(D2:D8)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E9">
-        <f>SUM(E2:E8)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="F9">
-        <f>SUM(F2:F8)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="G9">
-        <f>SUM(G2:G8)</f>
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="H9" s="13">
-        <f>SUM(H2:H8)</f>
+      <c r="H9" s="6">
+        <f t="shared" si="1"/>
         <v>114</v>
       </c>
     </row>
@@ -30665,7 +34294,7 @@
       <c r="B43" s="7"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="12" t="s">
         <v>31</v>
       </c>
       <c r="B44" s="7">
@@ -30673,20 +34302,20 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="15"/>
+      <c r="A45" s="13"/>
       <c r="B45" s="7"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B46" s="16">
+      <c r="B46" s="11">
         <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="7"/>
-      <c r="B47" s="16"/>
+      <c r="B47" s="11"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B75" s="7">
@@ -30736,24 +34365,28 @@
       <c r="A83" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B83" s="16">
+      <c r="B83" s="11">
         <v>165</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="8"/>
-      <c r="B84" s="16"/>
+      <c r="B84" s="11"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="17" t="s">
+      <c r="A85" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="17"/>
+      <c r="A86" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B77:B78"/>
     <mergeCell ref="A85:A86"/>
     <mergeCell ref="B83:B84"/>
     <mergeCell ref="A46:A47"/>
@@ -30770,10 +34403,6 @@
     <mergeCell ref="B79:B80"/>
     <mergeCell ref="A83:A84"/>
     <mergeCell ref="B81:B82"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B77:B78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -30781,12 +34410,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:K109"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31120,305 +34749,287 @@
       </c>
     </row>
     <row r="94" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E94" s="10" t="s">
+      <c r="E94" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F94" s="10" t="s">
+      <c r="F94" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G94" s="10" t="s">
+      <c r="G94" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H94" s="10" t="s">
+      <c r="H94" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="I94" s="10" t="s">
+      <c r="I94" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="J94" s="10" t="s">
+      <c r="J94" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="K94" s="10" t="s">
+      <c r="K94" s="16" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="95" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E95" s="10"/>
-      <c r="F95" s="10"/>
-      <c r="G95" s="10"/>
-      <c r="H95" s="10"/>
-      <c r="I95" s="10"/>
-      <c r="J95" s="10"/>
-      <c r="K95" s="10"/>
+      <c r="E95" s="16"/>
+      <c r="F95" s="16"/>
+      <c r="G95" s="16"/>
+      <c r="H95" s="16"/>
+      <c r="I95" s="16"/>
+      <c r="J95" s="16"/>
+      <c r="K95" s="16"/>
     </row>
     <row r="96" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E96" s="11" t="s">
+      <c r="E96" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="F96" s="9">
+      <c r="F96" s="14">
         <v>9</v>
       </c>
-      <c r="G96" s="9">
+      <c r="G96" s="14">
         <v>0</v>
       </c>
-      <c r="H96" s="9">
+      <c r="H96" s="14">
         <v>6</v>
       </c>
-      <c r="I96" s="9">
+      <c r="I96" s="14">
         <v>35</v>
       </c>
-      <c r="J96" s="9">
+      <c r="J96" s="14">
         <v>22</v>
       </c>
-      <c r="K96" s="9">
+      <c r="K96" s="14">
         <v>33</v>
       </c>
     </row>
     <row r="97" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E97" s="11"/>
-      <c r="F97" s="9"/>
-      <c r="G97" s="9"/>
-      <c r="H97" s="9"/>
-      <c r="I97" s="9"/>
-      <c r="J97" s="9"/>
-      <c r="K97" s="9"/>
+      <c r="E97" s="17"/>
+      <c r="F97" s="14"/>
+      <c r="G97" s="14"/>
+      <c r="H97" s="14"/>
+      <c r="I97" s="14"/>
+      <c r="J97" s="14"/>
+      <c r="K97" s="14"/>
     </row>
     <row r="98" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E98" s="12" t="s">
+      <c r="E98" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F98" s="9">
+      <c r="F98" s="14">
         <v>7</v>
       </c>
-      <c r="G98" s="9">
+      <c r="G98" s="14">
         <v>3</v>
       </c>
-      <c r="H98" s="9">
+      <c r="H98" s="14">
         <v>6</v>
       </c>
-      <c r="I98" s="9">
+      <c r="I98" s="14">
         <v>27</v>
       </c>
-      <c r="J98" s="9">
+      <c r="J98" s="14">
         <v>16</v>
       </c>
-      <c r="K98" s="9">
+      <c r="K98" s="14">
         <v>46</v>
       </c>
     </row>
     <row r="99" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E99" s="12"/>
-      <c r="F99" s="9"/>
-      <c r="G99" s="9"/>
-      <c r="H99" s="9"/>
-      <c r="I99" s="9"/>
-      <c r="J99" s="9"/>
-      <c r="K99" s="9"/>
+      <c r="E99" s="15"/>
+      <c r="F99" s="14"/>
+      <c r="G99" s="14"/>
+      <c r="H99" s="14"/>
+      <c r="I99" s="14"/>
+      <c r="J99" s="14"/>
+      <c r="K99" s="14"/>
     </row>
     <row r="100" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E100" s="12" t="s">
+      <c r="E100" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F100" s="9">
+      <c r="F100" s="14">
         <v>4</v>
       </c>
-      <c r="G100" s="9">
+      <c r="G100" s="14">
         <v>11</v>
       </c>
-      <c r="H100" s="9">
+      <c r="H100" s="14">
         <v>0</v>
       </c>
-      <c r="I100" s="9">
+      <c r="I100" s="14">
         <v>31</v>
       </c>
-      <c r="J100" s="9">
+      <c r="J100" s="14">
         <v>19</v>
       </c>
-      <c r="K100" s="9">
+      <c r="K100" s="14">
         <v>40</v>
       </c>
     </row>
     <row r="101" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E101" s="12"/>
-      <c r="F101" s="9"/>
-      <c r="G101" s="9"/>
-      <c r="H101" s="9"/>
-      <c r="I101" s="9"/>
-      <c r="J101" s="9"/>
-      <c r="K101" s="9"/>
+      <c r="E101" s="15"/>
+      <c r="F101" s="14"/>
+      <c r="G101" s="14"/>
+      <c r="H101" s="14"/>
+      <c r="I101" s="14"/>
+      <c r="J101" s="14"/>
+      <c r="K101" s="14"/>
     </row>
     <row r="102" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E102" s="12" t="s">
+      <c r="E102" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F102" s="9">
+      <c r="F102" s="14">
         <v>4</v>
       </c>
-      <c r="G102" s="9">
+      <c r="G102" s="14">
         <v>5</v>
       </c>
-      <c r="H102" s="9">
+      <c r="H102" s="14">
         <v>7</v>
       </c>
-      <c r="I102" s="9">
+      <c r="I102" s="14">
         <v>40</v>
       </c>
-      <c r="J102" s="9">
+      <c r="J102" s="14">
         <v>17</v>
       </c>
-      <c r="K102" s="9">
+      <c r="K102" s="14">
         <v>32</v>
       </c>
     </row>
     <row r="103" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E103" s="12"/>
-      <c r="F103" s="9"/>
-      <c r="G103" s="9"/>
-      <c r="H103" s="9"/>
-      <c r="I103" s="9"/>
-      <c r="J103" s="9"/>
-      <c r="K103" s="9"/>
+      <c r="E103" s="15"/>
+      <c r="F103" s="14"/>
+      <c r="G103" s="14"/>
+      <c r="H103" s="14"/>
+      <c r="I103" s="14"/>
+      <c r="J103" s="14"/>
+      <c r="K103" s="14"/>
     </row>
     <row r="104" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E104" s="12" t="s">
+      <c r="E104" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F104" s="9">
+      <c r="F104" s="14">
         <v>3</v>
       </c>
-      <c r="G104" s="9">
+      <c r="G104" s="14">
         <v>0</v>
       </c>
-      <c r="H104" s="9">
+      <c r="H104" s="14">
         <v>6</v>
       </c>
-      <c r="I104" s="9">
+      <c r="I104" s="14">
         <v>21</v>
       </c>
-      <c r="J104" s="9">
+      <c r="J104" s="14">
         <v>26</v>
       </c>
-      <c r="K104" s="9">
+      <c r="K104" s="14">
         <v>49</v>
       </c>
     </row>
     <row r="105" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E105" s="12"/>
-      <c r="F105" s="9"/>
-      <c r="G105" s="9"/>
-      <c r="H105" s="9"/>
-      <c r="I105" s="9"/>
-      <c r="J105" s="9"/>
-      <c r="K105" s="9"/>
+      <c r="E105" s="15"/>
+      <c r="F105" s="14"/>
+      <c r="G105" s="14"/>
+      <c r="H105" s="14"/>
+      <c r="I105" s="14"/>
+      <c r="J105" s="14"/>
+      <c r="K105" s="14"/>
     </row>
     <row r="106" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E106" s="12" t="s">
+      <c r="E106" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F106" s="9">
+      <c r="F106" s="14">
         <v>4</v>
       </c>
-      <c r="G106" s="9">
+      <c r="G106" s="14">
         <v>4</v>
       </c>
-      <c r="H106" s="9">
+      <c r="H106" s="14">
         <v>5</v>
       </c>
-      <c r="I106" s="9">
+      <c r="I106" s="14">
         <v>26</v>
       </c>
-      <c r="J106" s="9">
+      <c r="J106" s="14">
         <v>26</v>
       </c>
-      <c r="K106" s="9">
+      <c r="K106" s="14">
         <v>40</v>
       </c>
     </row>
     <row r="107" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E107" s="12"/>
-      <c r="F107" s="9"/>
-      <c r="G107" s="9"/>
-      <c r="H107" s="9"/>
-      <c r="I107" s="9"/>
-      <c r="J107" s="9"/>
-      <c r="K107" s="9"/>
+      <c r="E107" s="15"/>
+      <c r="F107" s="14"/>
+      <c r="G107" s="14"/>
+      <c r="H107" s="14"/>
+      <c r="I107" s="14"/>
+      <c r="J107" s="14"/>
+      <c r="K107" s="14"/>
     </row>
     <row r="108" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E108" s="12" t="s">
+      <c r="E108" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F108" s="9">
+      <c r="F108" s="14">
         <v>10</v>
       </c>
-      <c r="G108" s="9">
+      <c r="G108" s="14">
         <v>8</v>
       </c>
-      <c r="H108" s="9">
+      <c r="H108" s="14">
         <v>0</v>
       </c>
-      <c r="I108" s="9">
+      <c r="I108" s="14">
         <v>38</v>
       </c>
-      <c r="J108" s="9">
+      <c r="J108" s="14">
         <v>22</v>
       </c>
-      <c r="K108" s="9">
+      <c r="K108" s="14">
         <v>27</v>
       </c>
     </row>
     <row r="109" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E109" s="12"/>
-      <c r="F109" s="9"/>
-      <c r="G109" s="9"/>
-      <c r="H109" s="9"/>
-      <c r="I109" s="9"/>
-      <c r="J109" s="9"/>
-      <c r="K109" s="9"/>
+      <c r="E109" s="15"/>
+      <c r="F109" s="14"/>
+      <c r="G109" s="14"/>
+      <c r="H109" s="14"/>
+      <c r="I109" s="14"/>
+      <c r="J109" s="14"/>
+      <c r="K109" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="J102:J103"/>
-    <mergeCell ref="K102:K103"/>
-    <mergeCell ref="J100:J101"/>
-    <mergeCell ref="K100:K101"/>
-    <mergeCell ref="J98:J99"/>
-    <mergeCell ref="K98:K99"/>
-    <mergeCell ref="J108:J109"/>
-    <mergeCell ref="K108:K109"/>
-    <mergeCell ref="J106:J107"/>
-    <mergeCell ref="K106:K107"/>
-    <mergeCell ref="J104:J105"/>
-    <mergeCell ref="K104:K105"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="F108:F109"/>
-    <mergeCell ref="G108:G109"/>
-    <mergeCell ref="H108:H109"/>
-    <mergeCell ref="I108:I109"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="F106:F107"/>
-    <mergeCell ref="G106:G107"/>
-    <mergeCell ref="H106:H107"/>
-    <mergeCell ref="I106:I107"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="F104:F105"/>
-    <mergeCell ref="G104:G105"/>
-    <mergeCell ref="H104:H105"/>
-    <mergeCell ref="I104:I105"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="F102:F103"/>
-    <mergeCell ref="G102:G103"/>
-    <mergeCell ref="H102:H103"/>
-    <mergeCell ref="I102:I103"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="F100:F101"/>
-    <mergeCell ref="G100:G101"/>
-    <mergeCell ref="H100:H101"/>
-    <mergeCell ref="I100:I101"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="G98:G99"/>
-    <mergeCell ref="H98:H99"/>
-    <mergeCell ref="I98:I99"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
     <mergeCell ref="J96:J97"/>
     <mergeCell ref="K96:K97"/>
     <mergeCell ref="H94:H95"/>
@@ -31433,30 +35044,48 @@
     <mergeCell ref="J94:J95"/>
     <mergeCell ref="K94:K95"/>
     <mergeCell ref="I96:I97"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="G98:G99"/>
+    <mergeCell ref="H98:H99"/>
+    <mergeCell ref="I98:I99"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="F100:F101"/>
+    <mergeCell ref="G100:G101"/>
+    <mergeCell ref="H100:H101"/>
+    <mergeCell ref="I100:I101"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="G102:G103"/>
+    <mergeCell ref="H102:H103"/>
+    <mergeCell ref="I102:I103"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="F104:F105"/>
+    <mergeCell ref="G104:G105"/>
+    <mergeCell ref="H104:H105"/>
+    <mergeCell ref="I104:I105"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="G106:G107"/>
+    <mergeCell ref="H106:H107"/>
+    <mergeCell ref="I106:I107"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="F108:F109"/>
+    <mergeCell ref="G108:G109"/>
+    <mergeCell ref="H108:H109"/>
+    <mergeCell ref="I108:I109"/>
+    <mergeCell ref="J108:J109"/>
+    <mergeCell ref="K108:K109"/>
+    <mergeCell ref="J106:J107"/>
+    <mergeCell ref="K106:K107"/>
+    <mergeCell ref="J104:J105"/>
+    <mergeCell ref="K104:K105"/>
+    <mergeCell ref="J102:J103"/>
+    <mergeCell ref="K102:K103"/>
+    <mergeCell ref="J100:J101"/>
+    <mergeCell ref="K100:K101"/>
+    <mergeCell ref="J98:J99"/>
+    <mergeCell ref="K98:K99"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/3 - RQ/Esterni/Piano Di Progetto/GANTT-EXCEL/SWE-PianoDiLavoro.xlsx
+++ b/3 - RQ/Esterni/Piano Di Progetto/GANTT-EXCEL/SWE-PianoDiLavoro.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13960" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13960" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ARM" sheetId="1" r:id="rId1"/>
@@ -256,19 +256,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -823,11 +823,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2143034080"/>
-        <c:axId val="2143037632"/>
+        <c:axId val="-2147199008"/>
+        <c:axId val="-2147202560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2143034080"/>
+        <c:axId val="-2147199008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -870,7 +870,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2143037632"/>
+        <c:crossAx val="-2147202560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -878,7 +878,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2143037632"/>
+        <c:axId val="-2147202560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -929,7 +929,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2143034080"/>
+        <c:crossAx val="-2147199008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -943,7 +943,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1215,9 +1214,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -1287,9 +1284,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1372,7 +1367,6 @@
         <c:idx val="7"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -1977,11 +1971,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2143456768"/>
-        <c:axId val="2143460304"/>
+        <c:axId val="2123254896"/>
+        <c:axId val="2123258432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2143456768"/>
+        <c:axId val="2123254896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2024,7 +2018,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2143460304"/>
+        <c:crossAx val="2123258432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2032,7 +2026,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2143460304"/>
+        <c:axId val="2123258432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2083,7 +2077,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2143456768"/>
+        <c:crossAx val="2123254896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2097,7 +2091,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2378,9 +2371,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -2450,9 +2441,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2535,7 +2524,6 @@
         <c:idx val="7"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -2810,9 +2798,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -2882,9 +2868,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2967,7 +2951,6 @@
         <c:idx val="7"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -3572,11 +3555,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2143592656"/>
-        <c:axId val="2143596192"/>
+        <c:axId val="-2147378912"/>
+        <c:axId val="-2147382464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2143592656"/>
+        <c:axId val="-2147378912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3619,7 +3602,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2143596192"/>
+        <c:crossAx val="-2147382464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3627,7 +3610,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2143596192"/>
+        <c:axId val="-2147382464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3678,7 +3661,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2143592656"/>
+        <c:crossAx val="-2147378912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4013,9 +3996,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -4034,9 +4015,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -4055,9 +4034,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -4127,9 +4104,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -4222,7 +4197,6 @@
         <c:idx val="9"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -4535,9 +4509,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -4556,9 +4528,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -4628,9 +4598,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -4723,7 +4691,6 @@
         <c:idx val="9"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -5328,11 +5295,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2094598368"/>
-        <c:axId val="-2101384144"/>
+        <c:axId val="-2144807616"/>
+        <c:axId val="-2144804064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2094598368"/>
+        <c:axId val="-2144807616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5375,7 +5342,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2101384144"/>
+        <c:crossAx val="-2144804064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5383,7 +5350,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2101384144"/>
+        <c:axId val="-2144804064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5434,7 +5401,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2094598368"/>
+        <c:crossAx val="-2144807616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5748,9 +5715,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -5820,9 +5785,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -5915,7 +5878,6 @@
         <c:idx val="9"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -6218,9 +6180,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -6290,9 +6250,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -6385,7 +6343,6 @@
         <c:idx val="9"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -6722,9 +6679,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -6807,7 +6762,6 @@
         <c:idx val="7"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -7412,11 +7366,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2142217248"/>
-        <c:axId val="2142220784"/>
+        <c:axId val="-2144684960"/>
+        <c:axId val="-2144681424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2142217248"/>
+        <c:axId val="-2144684960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7459,7 +7413,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2142220784"/>
+        <c:crossAx val="-2144681424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7467,7 +7421,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2142220784"/>
+        <c:axId val="-2144681424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7518,7 +7472,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2142217248"/>
+        <c:crossAx val="-2144684960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7532,7 +7486,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7853,9 +7806,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -7925,9 +7876,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -8020,7 +7969,6 @@
         <c:idx val="9"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -8321,7 +8269,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -8345,7 +8292,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -8353,7 +8299,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -8377,7 +8322,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -8385,7 +8329,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -8409,7 +8352,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -8417,7 +8359,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -8441,7 +8382,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -8662,7 +8602,6 @@
         <c:idx val="9"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -9015,9 +8954,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -9036,9 +8973,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -9057,9 +8992,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -9078,9 +9011,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -9099,9 +9030,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -9171,9 +9100,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -9276,7 +9203,6 @@
         <c:idx val="11"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -9629,9 +9555,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -9650,9 +9574,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -9671,9 +9593,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -9743,9 +9663,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -9848,7 +9766,6 @@
         <c:idx val="11"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -10453,11 +10370,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2144587488"/>
-        <c:axId val="2144591056"/>
+        <c:axId val="-2144485888"/>
+        <c:axId val="-2144482320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2144587488"/>
+        <c:axId val="-2144485888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10500,7 +10417,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2144591056"/>
+        <c:crossAx val="-2144482320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10508,7 +10425,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2144591056"/>
+        <c:axId val="-2144482320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10559,7 +10476,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2144587488"/>
+        <c:crossAx val="-2144485888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10573,7 +10490,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10938,9 +10854,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -11031,7 +10945,6 @@
         <c:idx val="9"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -11695,11 +11608,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2142019376"/>
-        <c:axId val="2142022912"/>
+        <c:axId val="-2146368752"/>
+        <c:axId val="-2146372304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2142019376"/>
+        <c:axId val="-2146368752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11742,7 +11655,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2142022912"/>
+        <c:crossAx val="-2146372304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11750,7 +11663,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2142022912"/>
+        <c:axId val="-2146372304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11801,7 +11714,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2142019376"/>
+        <c:crossAx val="-2146368752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12137,11 +12050,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="65"/>
-        <c:axId val="2143202256"/>
-        <c:axId val="2143205664"/>
+        <c:axId val="2123444112"/>
+        <c:axId val="2123440464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2143202256"/>
+        <c:axId val="2123444112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12179,7 +12092,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2143205664"/>
+        <c:crossAx val="2123440464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12187,7 +12100,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2143205664"/>
+        <c:axId val="2123440464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12250,7 +12163,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2143202256"/>
+        <c:crossAx val="2123444112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12828,11 +12741,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2140454096"/>
-        <c:axId val="2140457632"/>
+        <c:axId val="-2145019184"/>
+        <c:axId val="-2145015648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2140454096"/>
+        <c:axId val="-2145019184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12875,7 +12788,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2140457632"/>
+        <c:crossAx val="-2145015648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12883,7 +12796,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2140457632"/>
+        <c:axId val="-2145015648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12934,7 +12847,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2140454096"/>
+        <c:crossAx val="-2145019184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12948,7 +12861,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13282,9 +13194,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -13367,7 +13277,6 @@
         <c:idx val="7"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -13972,11 +13881,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2143258352"/>
-        <c:axId val="2143261888"/>
+        <c:axId val="2123471856"/>
+        <c:axId val="2123435056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2143258352"/>
+        <c:axId val="2123471856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14019,7 +13928,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2143261888"/>
+        <c:crossAx val="2123435056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14027,7 +13936,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2143261888"/>
+        <c:axId val="2123435056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14078,7 +13987,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2143258352"/>
+        <c:crossAx val="2123471856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14092,7 +14001,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14375,9 +14283,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -14447,9 +14353,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -14532,7 +14436,6 @@
         <c:idx val="7"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -31806,52 +31709,52 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47" s="8">
         <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B49" s="8">
         <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B51" s="8">
         <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B53" s="7">
+      <c r="B53" s="8">
         <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
@@ -31859,81 +31762,81 @@
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B83" s="7">
+      <c r="B83" s="8">
         <v>90</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="8"/>
-      <c r="B84" s="7"/>
+      <c r="A84" s="9"/>
+      <c r="B84" s="8"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="8" t="s">
+      <c r="A85" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B85" s="7">
+      <c r="B85" s="8">
         <v>60</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="8"/>
-      <c r="B86" s="7"/>
+      <c r="A86" s="9"/>
+      <c r="B86" s="8"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="8" t="s">
+      <c r="A87" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B87" s="7">
+      <c r="B87" s="8">
         <v>750</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="8"/>
-      <c r="B88" s="7"/>
+      <c r="A88" s="9"/>
+      <c r="B88" s="8"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="8" t="s">
+      <c r="A89" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B89" s="7">
+      <c r="B89" s="8">
         <v>210</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="8"/>
-      <c r="B90" s="7"/>
+      <c r="A90" s="9"/>
+      <c r="B90" s="8"/>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="9"/>
-      <c r="B91" s="7"/>
+      <c r="A91" s="7"/>
+      <c r="B91" s="8"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="9"/>
-      <c r="B92" s="7"/>
+      <c r="A92" s="7"/>
+      <c r="B92" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
     <mergeCell ref="A91:A92"/>
     <mergeCell ref="B91:B92"/>
     <mergeCell ref="A87:A88"/>
     <mergeCell ref="B87:B88"/>
     <mergeCell ref="A89:A90"/>
     <mergeCell ref="B89:B90"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -32256,52 +32159,52 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B49" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B51" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B53" s="7">
+      <c r="B53" s="8">
         <v>30</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B55" s="7">
+      <c r="B55" s="8">
         <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -32578,103 +32481,111 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43" s="8">
         <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45" s="8">
         <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47" s="8">
         <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B49" s="8">
         <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="8" t="s">
+      <c r="A80" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B80" s="7">
+      <c r="B80" s="8">
         <v>180</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="8"/>
-      <c r="B81" s="7"/>
+      <c r="A81" s="9"/>
+      <c r="B81" s="8"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="8" t="s">
+      <c r="A82" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B82" s="7">
+      <c r="B82" s="8">
         <v>140</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="8"/>
-      <c r="B83" s="7"/>
+      <c r="A83" s="9"/>
+      <c r="B83" s="8"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="8" t="s">
+      <c r="A84" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B84" s="7">
+      <c r="B84" s="8">
         <v>2640</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="8"/>
-      <c r="B85" s="7"/>
+      <c r="A85" s="9"/>
+      <c r="B85" s="8"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="8" t="s">
+      <c r="A86" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B86" s="7">
+      <c r="B86" s="8">
         <v>975</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="8"/>
-      <c r="B87" s="7"/>
+      <c r="A87" s="9"/>
+      <c r="B87" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
     <mergeCell ref="A84:A85"/>
     <mergeCell ref="B84:B85"/>
     <mergeCell ref="A86:A87"/>
@@ -32683,14 +32594,6 @@
     <mergeCell ref="B80:B81"/>
     <mergeCell ref="A82:A83"/>
     <mergeCell ref="B82:B83"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -32956,103 +32859,111 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B49" s="8">
         <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B51" s="8">
         <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B53" s="7">
+      <c r="B53" s="8">
         <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B55" s="7">
+      <c r="B55" s="8">
         <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="8" t="s">
+      <c r="A86" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B86" s="7">
+      <c r="B86" s="8">
         <v>210</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="8"/>
-      <c r="B87" s="7"/>
+      <c r="A87" s="9"/>
+      <c r="B87" s="8"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="8" t="s">
+      <c r="A88" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B88" s="7">
+      <c r="B88" s="8">
         <v>140</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="8"/>
-      <c r="B89" s="7"/>
+      <c r="A89" s="9"/>
+      <c r="B89" s="8"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="8" t="s">
+      <c r="A90" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B90" s="7">
+      <c r="B90" s="8">
         <v>1430</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="8"/>
-      <c r="B91" s="7"/>
+      <c r="A91" s="9"/>
+      <c r="B91" s="8"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="8" t="s">
+      <c r="A92" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B92" s="7">
+      <c r="B92" s="8">
         <v>630</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="8"/>
-      <c r="B93" s="7"/>
+      <c r="A93" s="9"/>
+      <c r="B93" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
     <mergeCell ref="A90:A91"/>
     <mergeCell ref="B90:B91"/>
     <mergeCell ref="A92:A93"/>
@@ -33061,14 +32972,6 @@
     <mergeCell ref="B86:B87"/>
     <mergeCell ref="A88:A89"/>
     <mergeCell ref="B88:B89"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -33079,7 +32982,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H104"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="135" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" zoomScale="135" workbookViewId="0">
       <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
@@ -33347,174 +33250,160 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43" s="8">
         <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45" s="8">
         <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47" s="8">
         <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B49" s="8">
         <v>137</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B51" s="8">
         <v>77</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="8" t="s">
+      <c r="A77" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B77" s="7">
+      <c r="B77" s="8">
         <v>330</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="8"/>
-      <c r="B78" s="7"/>
+      <c r="A78" s="9"/>
+      <c r="B78" s="8"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="8" t="s">
+      <c r="A79" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B79" s="7">
+      <c r="B79" s="8">
         <v>120</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="8"/>
-      <c r="B80" s="7"/>
+      <c r="A80" s="9"/>
+      <c r="B80" s="8"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="8" t="s">
+      <c r="A81" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B81" s="7">
+      <c r="B81" s="8">
         <v>462</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="8"/>
-      <c r="B82" s="7"/>
+      <c r="A82" s="9"/>
+      <c r="B82" s="8"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B83" s="7">
+      <c r="B83" s="8">
         <v>2055</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="8"/>
-      <c r="B84" s="7"/>
+      <c r="A84" s="9"/>
+      <c r="B84" s="8"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="8" t="s">
+      <c r="A85" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B85" s="7">
+      <c r="B85" s="8">
         <f>1155</f>
         <v>1155</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="8"/>
-      <c r="B86" s="7"/>
+      <c r="A86" s="9"/>
+      <c r="B86" s="8"/>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B97" s="7">
+      <c r="B97" s="8">
         <v>210</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B98" s="7"/>
+      <c r="B98" s="8"/>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B99" s="7">
+      <c r="B99" s="8">
         <v>140</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B100" s="7"/>
+      <c r="B100" s="8"/>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B101" s="7">
+      <c r="B101" s="8">
         <v>1430</v>
       </c>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B102" s="7"/>
+      <c r="B102" s="8"/>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B103" s="7">
+      <c r="B103" s="8">
         <v>630</v>
       </c>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B104" s="7"/>
+      <c r="B104" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
     <mergeCell ref="A49:A50"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="A51:A52"/>
@@ -33525,6 +33414,20 @@
     <mergeCell ref="B45:B46"/>
     <mergeCell ref="A47:A48"/>
     <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -33535,7 +33438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="150" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A2" zoomScale="150" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -33795,127 +33698,139 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="8">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="8">
         <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="8">
         <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="8">
         <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="8">
         <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="8">
         <v>540</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="8"/>
-      <c r="B37" s="7"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="8"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="8">
         <v>260</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="8"/>
-      <c r="B39" s="7"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="8"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40" s="8">
         <v>1892</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="8"/>
-      <c r="B41" s="7"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="8"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42" s="8">
         <v>2055</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="8"/>
-      <c r="B43" s="7"/>
+      <c r="A43" s="9"/>
+      <c r="B43" s="8"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B44" s="8">
         <v>1785</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="8"/>
-      <c r="B45" s="7"/>
+      <c r="A45" s="9"/>
+      <c r="B45" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
     <mergeCell ref="A44:A45"/>
     <mergeCell ref="B44:B45"/>
     <mergeCell ref="A38:A39"/>
@@ -33924,18 +33839,6 @@
     <mergeCell ref="B40:B41"/>
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="B42:B43"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -34258,55 +34161,55 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="8">
         <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40" s="8">
         <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42" s="8">
         <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B44" s="8">
         <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="13"/>
-      <c r="B45" s="7"/>
+      <c r="B45" s="8"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B46" s="11">
@@ -34314,55 +34217,55 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="7"/>
+      <c r="A47" s="8"/>
       <c r="B47" s="11"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B75" s="7">
+      <c r="B75" s="8">
         <v>420</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B76" s="7"/>
+      <c r="B76" s="8"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="8" t="s">
+      <c r="A77" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B77" s="7">
+      <c r="B77" s="8">
         <v>160</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="8"/>
-      <c r="B78" s="7"/>
+      <c r="A78" s="9"/>
+      <c r="B78" s="8"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="8" t="s">
+      <c r="A79" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B79" s="7">
+      <c r="B79" s="8">
         <v>264</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="8"/>
-      <c r="B80" s="7"/>
+      <c r="A80" s="9"/>
+      <c r="B80" s="8"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="8" t="s">
+      <c r="A81" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B81" s="7">
+      <c r="B81" s="8">
         <v>1035</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="8"/>
-      <c r="B82" s="7"/>
+      <c r="A82" s="9"/>
+      <c r="B82" s="8"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B83" s="11">
@@ -34370,7 +34273,7 @@
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="8"/>
+      <c r="A84" s="9"/>
       <c r="B84" s="11"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
@@ -34383,12 +34286,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B83:B84"/>
     <mergeCell ref="A46:A47"/>
     <mergeCell ref="B44:B45"/>
     <mergeCell ref="A38:A39"/>
@@ -34399,6 +34296,12 @@
     <mergeCell ref="B42:B43"/>
     <mergeCell ref="A44:A45"/>
     <mergeCell ref="B46:B47"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B83:B84"/>
     <mergeCell ref="A81:A82"/>
     <mergeCell ref="B79:B80"/>
     <mergeCell ref="A83:A84"/>
@@ -34421,148 +34324,148 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="8">
         <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="8">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="8">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="8">
         <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="8">
         <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="8">
         <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43" s="8">
         <v>1230</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="8"/>
-      <c r="B44" s="7"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="8"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45" s="8">
         <v>620</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="8"/>
-      <c r="B46" s="7"/>
+      <c r="A46" s="9"/>
+      <c r="B46" s="8"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47" s="8">
         <v>750</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="8"/>
-      <c r="B48" s="7"/>
+      <c r="A48" s="9"/>
+      <c r="B48" s="8"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B49" s="8">
         <v>4796</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="8"/>
-      <c r="B50" s="7"/>
+      <c r="A50" s="9"/>
+      <c r="B50" s="8"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B51" s="8">
         <v>2220</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="8"/>
-      <c r="B52" s="7"/>
+      <c r="A52" s="9"/>
+      <c r="B52" s="8"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B53" s="7">
+      <c r="B53" s="8">
         <v>4005</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="8"/>
-      <c r="B54" s="7"/>
+      <c r="A54" s="9"/>
+      <c r="B54" s="8"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
@@ -34749,39 +34652,39 @@
       </c>
     </row>
     <row r="94" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E94" s="16" t="s">
+      <c r="E94" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F94" s="16" t="s">
+      <c r="F94" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G94" s="16" t="s">
+      <c r="G94" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="H94" s="16" t="s">
+      <c r="H94" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I94" s="16" t="s">
+      <c r="I94" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="J94" s="16" t="s">
+      <c r="J94" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="K94" s="16" t="s">
+      <c r="K94" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="95" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E95" s="16"/>
-      <c r="F95" s="16"/>
-      <c r="G95" s="16"/>
-      <c r="H95" s="16"/>
-      <c r="I95" s="16"/>
-      <c r="J95" s="16"/>
-      <c r="K95" s="16"/>
+      <c r="E95" s="15"/>
+      <c r="F95" s="15"/>
+      <c r="G95" s="15"/>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="15"/>
+      <c r="K95" s="15"/>
     </row>
     <row r="96" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E96" s="17" t="s">
+      <c r="E96" s="16" t="s">
         <v>0</v>
       </c>
       <c r="F96" s="14">
@@ -34804,7 +34707,7 @@
       </c>
     </row>
     <row r="97" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E97" s="17"/>
+      <c r="E97" s="16"/>
       <c r="F97" s="14"/>
       <c r="G97" s="14"/>
       <c r="H97" s="14"/>
@@ -34813,7 +34716,7 @@
       <c r="K97" s="14"/>
     </row>
     <row r="98" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E98" s="15" t="s">
+      <c r="E98" s="17" t="s">
         <v>24</v>
       </c>
       <c r="F98" s="14">
@@ -34836,7 +34739,7 @@
       </c>
     </row>
     <row r="99" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E99" s="15"/>
+      <c r="E99" s="17"/>
       <c r="F99" s="14"/>
       <c r="G99" s="14"/>
       <c r="H99" s="14"/>
@@ -34845,7 +34748,7 @@
       <c r="K99" s="14"/>
     </row>
     <row r="100" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E100" s="15" t="s">
+      <c r="E100" s="17" t="s">
         <v>25</v>
       </c>
       <c r="F100" s="14">
@@ -34868,7 +34771,7 @@
       </c>
     </row>
     <row r="101" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E101" s="15"/>
+      <c r="E101" s="17"/>
       <c r="F101" s="14"/>
       <c r="G101" s="14"/>
       <c r="H101" s="14"/>
@@ -34877,7 +34780,7 @@
       <c r="K101" s="14"/>
     </row>
     <row r="102" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E102" s="15" t="s">
+      <c r="E102" s="17" t="s">
         <v>26</v>
       </c>
       <c r="F102" s="14">
@@ -34900,7 +34803,7 @@
       </c>
     </row>
     <row r="103" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E103" s="15"/>
+      <c r="E103" s="17"/>
       <c r="F103" s="14"/>
       <c r="G103" s="14"/>
       <c r="H103" s="14"/>
@@ -34909,7 +34812,7 @@
       <c r="K103" s="14"/>
     </row>
     <row r="104" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E104" s="15" t="s">
+      <c r="E104" s="17" t="s">
         <v>27</v>
       </c>
       <c r="F104" s="14">
@@ -34932,7 +34835,7 @@
       </c>
     </row>
     <row r="105" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E105" s="15"/>
+      <c r="E105" s="17"/>
       <c r="F105" s="14"/>
       <c r="G105" s="14"/>
       <c r="H105" s="14"/>
@@ -34941,7 +34844,7 @@
       <c r="K105" s="14"/>
     </row>
     <row r="106" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E106" s="15" t="s">
+      <c r="E106" s="17" t="s">
         <v>28</v>
       </c>
       <c r="F106" s="14">
@@ -34964,7 +34867,7 @@
       </c>
     </row>
     <row r="107" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E107" s="15"/>
+      <c r="E107" s="17"/>
       <c r="F107" s="14"/>
       <c r="G107" s="14"/>
       <c r="H107" s="14"/>
@@ -34973,7 +34876,7 @@
       <c r="K107" s="14"/>
     </row>
     <row r="108" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E108" s="15" t="s">
+      <c r="E108" s="17" t="s">
         <v>29</v>
       </c>
       <c r="F108" s="14">
@@ -34996,7 +34899,7 @@
       </c>
     </row>
     <row r="109" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E109" s="15"/>
+      <c r="E109" s="17"/>
       <c r="F109" s="14"/>
       <c r="G109" s="14"/>
       <c r="H109" s="14"/>
@@ -35006,30 +34909,48 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="J102:J103"/>
+    <mergeCell ref="K102:K103"/>
+    <mergeCell ref="J100:J101"/>
+    <mergeCell ref="K100:K101"/>
+    <mergeCell ref="J98:J99"/>
+    <mergeCell ref="K98:K99"/>
+    <mergeCell ref="J108:J109"/>
+    <mergeCell ref="K108:K109"/>
+    <mergeCell ref="J106:J107"/>
+    <mergeCell ref="K106:K107"/>
+    <mergeCell ref="J104:J105"/>
+    <mergeCell ref="K104:K105"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="F108:F109"/>
+    <mergeCell ref="G108:G109"/>
+    <mergeCell ref="H108:H109"/>
+    <mergeCell ref="I108:I109"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="G106:G107"/>
+    <mergeCell ref="H106:H107"/>
+    <mergeCell ref="I106:I107"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="F104:F105"/>
+    <mergeCell ref="G104:G105"/>
+    <mergeCell ref="H104:H105"/>
+    <mergeCell ref="I104:I105"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="G102:G103"/>
+    <mergeCell ref="H102:H103"/>
+    <mergeCell ref="I102:I103"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="F100:F101"/>
+    <mergeCell ref="G100:G101"/>
+    <mergeCell ref="H100:H101"/>
+    <mergeCell ref="I100:I101"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="G98:G99"/>
+    <mergeCell ref="H98:H99"/>
+    <mergeCell ref="I98:I99"/>
     <mergeCell ref="J96:J97"/>
     <mergeCell ref="K96:K97"/>
     <mergeCell ref="H94:H95"/>
@@ -35044,48 +34965,30 @@
     <mergeCell ref="J94:J95"/>
     <mergeCell ref="K94:K95"/>
     <mergeCell ref="I96:I97"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="G98:G99"/>
-    <mergeCell ref="H98:H99"/>
-    <mergeCell ref="I98:I99"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="F100:F101"/>
-    <mergeCell ref="G100:G101"/>
-    <mergeCell ref="H100:H101"/>
-    <mergeCell ref="I100:I101"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="F102:F103"/>
-    <mergeCell ref="G102:G103"/>
-    <mergeCell ref="H102:H103"/>
-    <mergeCell ref="I102:I103"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="F104:F105"/>
-    <mergeCell ref="G104:G105"/>
-    <mergeCell ref="H104:H105"/>
-    <mergeCell ref="I104:I105"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="F106:F107"/>
-    <mergeCell ref="G106:G107"/>
-    <mergeCell ref="H106:H107"/>
-    <mergeCell ref="I106:I107"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="F108:F109"/>
-    <mergeCell ref="G108:G109"/>
-    <mergeCell ref="H108:H109"/>
-    <mergeCell ref="I108:I109"/>
-    <mergeCell ref="J108:J109"/>
-    <mergeCell ref="K108:K109"/>
-    <mergeCell ref="J106:J107"/>
-    <mergeCell ref="K106:K107"/>
-    <mergeCell ref="J104:J105"/>
-    <mergeCell ref="K104:K105"/>
-    <mergeCell ref="J102:J103"/>
-    <mergeCell ref="K102:K103"/>
-    <mergeCell ref="J100:J101"/>
-    <mergeCell ref="K100:K101"/>
-    <mergeCell ref="J98:J99"/>
-    <mergeCell ref="K98:K99"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/3 - RQ/Esterni/Piano Di Progetto/GANTT-EXCEL/SWE-PianoDiLavoro.xlsx
+++ b/3 - RQ/Esterni/Piano Di Progetto/GANTT-EXCEL/SWE-PianoDiLavoro.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fbazzerl/Desktop/SWE/Monolith GitHub/documenti/3 - RQ/Esterni/Piano Di Progetto/GANTT-EXCEL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fbazzerl/Desktop/SWE/MonolithGitHub/documenti/3 - RQ/Esterni/Piano Di Progetto/GANTT-EXCEL/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13960" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="ARM" sheetId="1" r:id="rId1"/>
@@ -256,19 +256,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -823,11 +823,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2147199008"/>
-        <c:axId val="-2147202560"/>
+        <c:axId val="2134747456"/>
+        <c:axId val="2134751008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2147199008"/>
+        <c:axId val="2134747456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -870,7 +870,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2147202560"/>
+        <c:crossAx val="2134751008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -878,7 +878,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2147202560"/>
+        <c:axId val="2134751008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -929,7 +929,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2147199008"/>
+        <c:crossAx val="2134747456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -943,6 +943,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1971,11 +1972,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2123254896"/>
-        <c:axId val="2123258432"/>
+        <c:axId val="2104320208"/>
+        <c:axId val="2104323744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2123254896"/>
+        <c:axId val="2104320208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2018,7 +2019,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2123258432"/>
+        <c:crossAx val="2104323744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2026,7 +2027,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2123258432"/>
+        <c:axId val="2104323744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2077,7 +2078,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2123254896"/>
+        <c:crossAx val="2104320208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2091,6 +2092,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3437,25 +3439,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>22.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>14.0</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.0</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.0</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20.0</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3521,25 +3523,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>6.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.0</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.0</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.0</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3555,11 +3557,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2147378912"/>
-        <c:axId val="-2147382464"/>
+        <c:axId val="2136063280"/>
+        <c:axId val="2136066816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2147378912"/>
+        <c:axId val="2136063280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3602,7 +3604,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2147382464"/>
+        <c:crossAx val="2136066816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3610,7 +3612,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2147382464"/>
+        <c:axId val="2136066816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3661,7 +3663,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2147378912"/>
+        <c:crossAx val="2136063280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3996,7 +3998,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -4015,7 +4019,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -4034,7 +4040,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -4104,7 +4112,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -4146,10 +4156,10 @@
                   <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>137.0</c:v>
+                  <c:v>193.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>77.0</c:v>
+                  <c:v>91.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4197,6 +4207,7 @@
         <c:idx val="9"/>
         <c:delete val="1"/>
       </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -4509,7 +4520,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -4528,7 +4541,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -4598,7 +4613,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -4691,6 +4708,7 @@
         <c:idx val="9"/>
         <c:delete val="1"/>
       </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -5177,25 +5195,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>22.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>14.0</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.0</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.0</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20.0</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5261,25 +5279,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>14.0</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.0</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.0</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.0</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.0</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.0</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5295,11 +5313,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2144807616"/>
-        <c:axId val="-2144804064"/>
+        <c:axId val="2104420048"/>
+        <c:axId val="2104423584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2144807616"/>
+        <c:axId val="2104420048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5342,7 +5360,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2144804064"/>
+        <c:crossAx val="2104423584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5350,7 +5368,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2144804064"/>
+        <c:axId val="2104423584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5401,7 +5419,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2144807616"/>
+        <c:crossAx val="2104420048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5715,7 +5733,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -5785,7 +5805,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -5827,10 +5849,10 @@
                   <c:v>86.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>137.0</c:v>
+                  <c:v>193.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>119.0</c:v>
+                  <c:v>133.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5878,6 +5900,7 @@
         <c:idx val="9"/>
         <c:delete val="1"/>
       </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -6180,7 +6203,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -6250,7 +6275,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -6343,6 +6370,7 @@
         <c:idx val="9"/>
         <c:delete val="1"/>
       </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -6679,7 +6707,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -6762,6 +6792,7 @@
         <c:idx val="7"/>
         <c:delete val="1"/>
       </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -7366,11 +7397,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2144684960"/>
-        <c:axId val="-2144681424"/>
+        <c:axId val="2104452928"/>
+        <c:axId val="2104456464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2144684960"/>
+        <c:axId val="2104452928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7413,7 +7444,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2144681424"/>
+        <c:crossAx val="2104456464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7421,7 +7452,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2144681424"/>
+        <c:axId val="2104456464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7472,7 +7503,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2144684960"/>
+        <c:crossAx val="2104452928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8269,13 +8300,14 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{A6D8E32A-ABD1-EB42-B8EF-5D102E5643CA}" type="PERCENTAGE">
-                      <a:rPr lang="is-IS" sz="2000"/>
+                      <a:rPr lang="mr-IN" sz="2000"/>
                       <a:pPr/>
                       <a:t>[PERCENTUALE]</a:t>
                     </a:fld>
@@ -8292,6 +8324,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -8299,13 +8332,14 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{E152E207-B13B-6642-BAB1-CD571DF6F864}" type="PERCENTAGE">
-                      <a:rPr lang="pt-BR" sz="2000"/>
+                      <a:rPr lang="mr-IN" sz="2000"/>
                       <a:pPr/>
                       <a:t>[PERCENTUALE]</a:t>
                     </a:fld>
@@ -8322,6 +8356,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -8329,13 +8364,14 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{E3623109-11E4-B446-BF05-B9EC4E702473}" type="PERCENTAGE">
-                      <a:rPr lang="pt-BR" sz="2000"/>
+                      <a:rPr lang="mr-IN" sz="2000"/>
                       <a:pPr/>
                       <a:t>[PERCENTUALE]</a:t>
                     </a:fld>
@@ -8352,6 +8388,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -8359,13 +8396,14 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{3BD17368-7DD1-C94A-A6A8-C61C9501941E}" type="PERCENTAGE">
-                      <a:rPr lang="pt-BR" sz="2000"/>
+                      <a:rPr lang="mr-IN" sz="2000"/>
                       <a:pPr/>
                       <a:t>[PERCENTUALE]</a:t>
                     </a:fld>
@@ -8382,6 +8420,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -8602,6 +8641,7 @@
         <c:idx val="9"/>
         <c:delete val="1"/>
       </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -8954,7 +8994,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -8973,7 +9015,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -8992,7 +9036,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -9011,7 +9057,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -9030,7 +9078,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -9100,7 +9150,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -9148,10 +9200,10 @@
                   <c:v>218.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>148.0</c:v>
+                  <c:v>204.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>267.0</c:v>
+                  <c:v>281.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9203,6 +9255,7 @@
         <c:idx val="11"/>
         <c:delete val="1"/>
       </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -9555,7 +9608,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -9574,7 +9629,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -9593,7 +9650,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -9663,7 +9722,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -9766,6 +9827,7 @@
         <c:idx val="11"/>
         <c:delete val="1"/>
       </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -10370,11 +10432,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2144485888"/>
-        <c:axId val="-2144482320"/>
+        <c:axId val="2136540544"/>
+        <c:axId val="2136544112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2144485888"/>
+        <c:axId val="2136540544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10417,7 +10479,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2144482320"/>
+        <c:crossAx val="2136544112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10425,7 +10487,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2144482320"/>
+        <c:axId val="2136544112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10476,7 +10538,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2144485888"/>
+        <c:crossAx val="2136540544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10490,6 +10552,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10854,7 +10917,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -10945,6 +11010,7 @@
         <c:idx val="9"/>
         <c:delete val="1"/>
       </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -11608,11 +11674,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2146368752"/>
-        <c:axId val="-2146372304"/>
+        <c:axId val="2133755952"/>
+        <c:axId val="2133759488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2146368752"/>
+        <c:axId val="2133755952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11655,7 +11721,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2146372304"/>
+        <c:crossAx val="2133759488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11663,7 +11729,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2146372304"/>
+        <c:axId val="2133759488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11714,7 +11780,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2146368752"/>
+        <c:crossAx val="2133755952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12050,11 +12116,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="65"/>
-        <c:axId val="2123444112"/>
-        <c:axId val="2123440464"/>
+        <c:axId val="2134800240"/>
+        <c:axId val="2134803872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2123444112"/>
+        <c:axId val="2134800240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12092,7 +12158,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2123440464"/>
+        <c:crossAx val="2134803872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12100,7 +12166,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2123440464"/>
+        <c:axId val="2134803872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12163,7 +12229,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2123444112"/>
+        <c:crossAx val="2134800240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12741,11 +12807,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2145019184"/>
-        <c:axId val="-2145015648"/>
+        <c:axId val="2133921072"/>
+        <c:axId val="2133917520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2145019184"/>
+        <c:axId val="2133921072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12788,7 +12854,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2145015648"/>
+        <c:crossAx val="2133917520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12796,7 +12862,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2145015648"/>
+        <c:axId val="2133917520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12847,7 +12913,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2145019184"/>
+        <c:crossAx val="2133921072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13881,11 +13947,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2123471856"/>
-        <c:axId val="2123435056"/>
+        <c:axId val="2135031936"/>
+        <c:axId val="2135035472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2123471856"/>
+        <c:axId val="2135031936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13928,7 +13994,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2123435056"/>
+        <c:crossAx val="2135035472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13936,7 +14002,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2123435056"/>
+        <c:axId val="2135035472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13987,7 +14053,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2123471856"/>
+        <c:crossAx val="2135031936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -31454,8 +31520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H92"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A71" zoomScale="83" workbookViewId="0">
-      <selection activeCell="M45" sqref="M45"/>
+    <sheetView showRuler="0" zoomScale="83" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31709,52 +31775,52 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B47" s="8">
+      <c r="B47" s="7">
         <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8"/>
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B49" s="8">
+      <c r="B49" s="7">
         <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B51" s="8">
+      <c r="B51" s="7">
         <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B53" s="8">
+      <c r="B53" s="7">
         <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
@@ -31762,81 +31828,81 @@
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="9" t="s">
+      <c r="A83" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B83" s="8">
+      <c r="B83" s="7">
         <v>90</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="9"/>
-      <c r="B84" s="8"/>
+      <c r="A84" s="8"/>
+      <c r="B84" s="7"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="9" t="s">
+      <c r="A85" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B85" s="8">
+      <c r="B85" s="7">
         <v>60</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="9"/>
-      <c r="B86" s="8"/>
+      <c r="A86" s="8"/>
+      <c r="B86" s="7"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="9" t="s">
+      <c r="A87" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B87" s="8">
+      <c r="B87" s="7">
         <v>750</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="9"/>
-      <c r="B88" s="8"/>
+      <c r="A88" s="8"/>
+      <c r="B88" s="7"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="9" t="s">
+      <c r="A89" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B89" s="8">
+      <c r="B89" s="7">
         <v>210</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="9"/>
-      <c r="B90" s="8"/>
+      <c r="A90" s="8"/>
+      <c r="B90" s="7"/>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="7"/>
-      <c r="B91" s="8"/>
+      <c r="A91" s="9"/>
+      <c r="B91" s="7"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="7"/>
-      <c r="B92" s="8"/>
+      <c r="A92" s="9"/>
+      <c r="B92" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
     <mergeCell ref="A47:A48"/>
     <mergeCell ref="B47:B48"/>
     <mergeCell ref="A49:A50"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="A51:A52"/>
     <mergeCell ref="B51:B52"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -32159,52 +32225,52 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B49" s="8">
+      <c r="B49" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B51" s="8">
+      <c r="B51" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B53" s="8">
+      <c r="B53" s="7">
         <v>30</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B55" s="8">
+      <c r="B55" s="7">
         <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -32481,103 +32547,111 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B43" s="8">
+      <c r="B43" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B45" s="8">
+      <c r="B45" s="7">
         <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B47" s="8">
+      <c r="B47" s="7">
         <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8"/>
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B49" s="8">
+      <c r="B49" s="7">
         <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="9" t="s">
+      <c r="A80" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B80" s="8">
+      <c r="B80" s="7">
         <v>180</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="9"/>
-      <c r="B81" s="8"/>
+      <c r="A81" s="8"/>
+      <c r="B81" s="7"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="9" t="s">
+      <c r="A82" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B82" s="8">
+      <c r="B82" s="7">
         <v>140</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="9"/>
-      <c r="B83" s="8"/>
+      <c r="A83" s="8"/>
+      <c r="B83" s="7"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="9" t="s">
+      <c r="A84" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B84" s="8">
+      <c r="B84" s="7">
         <v>2640</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="9"/>
-      <c r="B85" s="8"/>
+      <c r="A85" s="8"/>
+      <c r="B85" s="7"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="9" t="s">
+      <c r="A86" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B86" s="8">
+      <c r="B86" s="7">
         <v>975</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="9"/>
-      <c r="B87" s="8"/>
+      <c r="A87" s="8"/>
+      <c r="B87" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:B83"/>
     <mergeCell ref="A49:A50"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="A43:A44"/>
@@ -32586,14 +32660,6 @@
     <mergeCell ref="B45:B46"/>
     <mergeCell ref="A47:A48"/>
     <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:B83"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -32859,103 +32925,111 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B49" s="8">
+      <c r="B49" s="7">
         <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B51" s="8">
+      <c r="B51" s="7">
         <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B53" s="8">
+      <c r="B53" s="7">
         <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B55" s="8">
+      <c r="B55" s="7">
         <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="9" t="s">
+      <c r="A86" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B86" s="8">
+      <c r="B86" s="7">
         <v>210</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="9"/>
-      <c r="B87" s="8"/>
+      <c r="A87" s="8"/>
+      <c r="B87" s="7"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="9" t="s">
+      <c r="A88" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B88" s="8">
+      <c r="B88" s="7">
         <v>140</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="9"/>
-      <c r="B89" s="8"/>
+      <c r="A89" s="8"/>
+      <c r="B89" s="7"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="9" t="s">
+      <c r="A90" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B90" s="8">
+      <c r="B90" s="7">
         <v>1430</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="9"/>
-      <c r="B91" s="8"/>
+      <c r="A91" s="8"/>
+      <c r="B91" s="7"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="9" t="s">
+      <c r="A92" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B92" s="8">
+      <c r="B92" s="7">
         <v>630</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="9"/>
-      <c r="B93" s="8"/>
+      <c r="A93" s="8"/>
+      <c r="B93" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B88:B89"/>
     <mergeCell ref="A55:A56"/>
     <mergeCell ref="B55:B56"/>
     <mergeCell ref="A49:A50"/>
@@ -32964,14 +33038,6 @@
     <mergeCell ref="B51:B52"/>
     <mergeCell ref="A53:A54"/>
     <mergeCell ref="B53:B54"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="B88:B89"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -32982,8 +33048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H104"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="135" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView showRuler="0" topLeftCell="A69" zoomScale="135" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -33034,14 +33100,14 @@
         <v>10</v>
       </c>
       <c r="F2" s="4">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G2" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H2" s="4">
         <f>SUM(B2:G2)</f>
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -33061,14 +33127,14 @@
         <v>0</v>
       </c>
       <c r="F3" s="4">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G3" s="4">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H3" s="4">
         <f t="shared" ref="H3:H8" si="0">SUM(B3:G3)</f>
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -33088,14 +33154,14 @@
         <v>11</v>
       </c>
       <c r="F4" s="4">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G4" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -33115,14 +33181,14 @@
         <v>0</v>
       </c>
       <c r="F5" s="4">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G5" s="4">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H5" s="4">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -33142,14 +33208,14 @@
         <v>0</v>
       </c>
       <c r="F6" s="4">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="G6" s="4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H6" s="4">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -33169,14 +33235,14 @@
         <v>0</v>
       </c>
       <c r="F7" s="4">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="G7" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H7" s="4">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -33196,14 +33262,14 @@
         <v>0</v>
       </c>
       <c r="F8" s="4">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G8" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H8" s="4">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -33225,15 +33291,15 @@
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>137</v>
+        <v>193</v>
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" si="1"/>
-        <v>252</v>
+        <v>322</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
@@ -33250,160 +33316,174 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B43" s="8">
+      <c r="B43" s="7">
         <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B45" s="8">
+      <c r="B45" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B47" s="8">
+      <c r="B47" s="7">
         <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8"/>
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B49" s="8">
-        <v>137</v>
+      <c r="B49" s="7">
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B51" s="8">
-        <v>77</v>
+      <c r="B51" s="7">
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="9" t="s">
+      <c r="A77" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B77" s="8">
+      <c r="B77" s="7">
         <v>330</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="9"/>
-      <c r="B78" s="8"/>
+      <c r="A78" s="8"/>
+      <c r="B78" s="7"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="9" t="s">
+      <c r="A79" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B79" s="8">
+      <c r="B79" s="7">
         <v>120</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="9"/>
-      <c r="B80" s="8"/>
+      <c r="A80" s="8"/>
+      <c r="B80" s="7"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="9" t="s">
+      <c r="A81" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B81" s="8">
+      <c r="B81" s="7">
         <v>462</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="9"/>
-      <c r="B82" s="8"/>
+      <c r="A82" s="8"/>
+      <c r="B82" s="7"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="9" t="s">
+      <c r="A83" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B83" s="8">
+      <c r="B83" s="7">
         <v>2055</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="9"/>
-      <c r="B84" s="8"/>
+      <c r="A84" s="8"/>
+      <c r="B84" s="7"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="9" t="s">
+      <c r="A85" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B85" s="8">
+      <c r="B85" s="7">
         <f>1155</f>
         <v>1155</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="9"/>
-      <c r="B86" s="8"/>
+      <c r="A86" s="8"/>
+      <c r="B86" s="7"/>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B97" s="8">
+      <c r="B97" s="7">
         <v>210</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B98" s="8"/>
+      <c r="B98" s="7"/>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B99" s="8">
+      <c r="B99" s="7">
         <v>140</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B100" s="8"/>
+      <c r="B100" s="7"/>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B101" s="8">
+      <c r="B101" s="7">
         <v>1430</v>
       </c>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B102" s="8"/>
+      <c r="B102" s="7"/>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B103" s="8">
+      <c r="B103" s="7">
         <v>630</v>
       </c>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B104" s="8"/>
+      <c r="B104" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
     <mergeCell ref="A49:A50"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="A51:A52"/>
@@ -33414,20 +33494,6 @@
     <mergeCell ref="B45:B46"/>
     <mergeCell ref="A47:A48"/>
     <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -33438,8 +33504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A2" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView showRuler="0" topLeftCell="I1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -33487,14 +33553,14 @@
         <v>15</v>
       </c>
       <c r="F2" s="4">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G2" s="4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H2" s="4">
         <f>SUM(B2:G2)</f>
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -33514,14 +33580,14 @@
         <v>9</v>
       </c>
       <c r="F3" s="4">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G3" s="4">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H3" s="4">
         <f t="shared" ref="H3:H8" si="0">SUM(B3:G3)</f>
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -33541,14 +33607,14 @@
         <v>16</v>
       </c>
       <c r="F4" s="4">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G4" s="4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -33568,14 +33634,14 @@
         <v>14</v>
       </c>
       <c r="F5" s="4">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G5" s="4">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H5" s="4">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -33595,14 +33661,14 @@
         <v>7</v>
       </c>
       <c r="F6" s="4">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="G6" s="4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H6" s="4">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -33622,14 +33688,14 @@
         <v>10</v>
       </c>
       <c r="F7" s="4">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="G7" s="4">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H7" s="4">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -33649,14 +33715,14 @@
         <v>15</v>
       </c>
       <c r="F8" s="4">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G8" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H8" s="4">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -33678,15 +33744,15 @@
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>137</v>
+        <v>193</v>
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" si="1"/>
-        <v>373</v>
+        <v>443</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -33698,139 +33764,127 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="7">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="7">
         <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="7">
         <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="8">
-        <v>137</v>
+      <c r="B25" s="7">
+        <v>193</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="8">
-        <v>119</v>
+      <c r="B27" s="7">
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="8">
+      <c r="B36" s="7">
         <v>540</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="9"/>
-      <c r="B37" s="8"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="7"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="8">
+      <c r="B38" s="7">
         <v>260</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="9"/>
-      <c r="B39" s="8"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="7"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B40" s="8">
+      <c r="B40" s="7">
         <v>1892</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="9"/>
-      <c r="B41" s="8"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="7"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B42" s="8">
+      <c r="B42" s="7">
         <v>2055</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="9"/>
-      <c r="B43" s="8"/>
+      <c r="A43" s="8"/>
+      <c r="B43" s="7"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B44" s="8">
+      <c r="B44" s="7">
         <v>1785</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="9"/>
-      <c r="B45" s="8"/>
+      <c r="A45" s="8"/>
+      <c r="B45" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
     <mergeCell ref="A44:A45"/>
     <mergeCell ref="B44:B45"/>
     <mergeCell ref="A38:A39"/>
@@ -33839,6 +33893,18 @@
     <mergeCell ref="B40:B41"/>
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="B42:B43"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -34161,131 +34227,141 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="8">
+      <c r="B38" s="7">
         <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B40" s="8">
+      <c r="B40" s="7">
         <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B42" s="8">
+      <c r="B42" s="7">
         <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B44" s="8">
+      <c r="B44" s="7">
         <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="13"/>
-      <c r="B45" s="8"/>
+      <c r="A45" s="11"/>
+      <c r="B45" s="7"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B46" s="11">
+      <c r="B46" s="12">
         <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="8"/>
-      <c r="B47" s="11"/>
+      <c r="A47" s="7"/>
+      <c r="B47" s="12"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B75" s="8">
+      <c r="B75" s="7">
         <v>420</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B76" s="8"/>
+      <c r="B76" s="7"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="9" t="s">
+      <c r="A77" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B77" s="8">
+      <c r="B77" s="7">
         <v>160</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="9"/>
-      <c r="B78" s="8"/>
+      <c r="A78" s="8"/>
+      <c r="B78" s="7"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="9" t="s">
+      <c r="A79" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B79" s="8">
+      <c r="B79" s="7">
         <v>264</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="9"/>
-      <c r="B80" s="8"/>
+      <c r="A80" s="8"/>
+      <c r="B80" s="7"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="9" t="s">
+      <c r="A81" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B81" s="8">
+      <c r="B81" s="7">
         <v>1035</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="9"/>
-      <c r="B82" s="8"/>
+      <c r="A82" s="8"/>
+      <c r="B82" s="7"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="9" t="s">
+      <c r="A83" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B83" s="11">
+      <c r="B83" s="12">
         <v>165</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="9"/>
-      <c r="B84" s="11"/>
+      <c r="A84" s="8"/>
+      <c r="B84" s="12"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="10" t="s">
+      <c r="A85" s="13" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="10"/>
+      <c r="A86" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B81:B82"/>
     <mergeCell ref="A46:A47"/>
     <mergeCell ref="B44:B45"/>
     <mergeCell ref="A38:A39"/>
@@ -34296,16 +34372,6 @@
     <mergeCell ref="B42:B43"/>
     <mergeCell ref="A44:A45"/>
     <mergeCell ref="B46:B47"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B81:B82"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -34315,157 +34381,157 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:K109"/>
+  <dimension ref="A3:L109"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="E86" workbookViewId="0">
+      <selection activeCell="L111" sqref="L111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="8">
-        <v>148</v>
+      <c r="B11" s="7">
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="8">
-        <v>267</v>
+      <c r="B13" s="7">
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B43" s="8">
+      <c r="B43" s="7">
         <v>1230</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="9"/>
-      <c r="B44" s="8"/>
+      <c r="A44" s="8"/>
+      <c r="B44" s="7"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B45" s="8">
+      <c r="B45" s="7">
         <v>620</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="9"/>
-      <c r="B46" s="8"/>
+      <c r="A46" s="8"/>
+      <c r="B46" s="7"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B47" s="8">
+      <c r="B47" s="7">
         <v>750</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="9"/>
-      <c r="B48" s="8"/>
+      <c r="A48" s="8"/>
+      <c r="B48" s="7"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B49" s="8">
+      <c r="B49" s="7">
         <v>4796</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="9"/>
-      <c r="B50" s="8"/>
+      <c r="A50" s="8"/>
+      <c r="B50" s="7"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B51" s="8">
+      <c r="B51" s="7">
         <v>2220</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="9"/>
-      <c r="B52" s="8"/>
+      <c r="A52" s="8"/>
+      <c r="B52" s="7"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B53" s="8">
+      <c r="B53" s="7">
         <v>4005</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="9"/>
-      <c r="B54" s="8"/>
+      <c r="A54" s="8"/>
+      <c r="B54" s="7"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
@@ -34652,39 +34718,39 @@
       </c>
     </row>
     <row r="94" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E94" s="15" t="s">
+      <c r="E94" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F94" s="15" t="s">
+      <c r="F94" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G94" s="15" t="s">
+      <c r="G94" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H94" s="15" t="s">
+      <c r="H94" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="I94" s="15" t="s">
+      <c r="I94" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="J94" s="15" t="s">
+      <c r="J94" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="K94" s="15" t="s">
+      <c r="K94" s="16" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="95" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E95" s="15"/>
-      <c r="F95" s="15"/>
-      <c r="G95" s="15"/>
-      <c r="H95" s="15"/>
-      <c r="I95" s="15"/>
-      <c r="J95" s="15"/>
-      <c r="K95" s="15"/>
+      <c r="E95" s="16"/>
+      <c r="F95" s="16"/>
+      <c r="G95" s="16"/>
+      <c r="H95" s="16"/>
+      <c r="I95" s="16"/>
+      <c r="J95" s="16"/>
+      <c r="K95" s="16"/>
     </row>
     <row r="96" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E96" s="16" t="s">
+      <c r="E96" s="17" t="s">
         <v>0</v>
       </c>
       <c r="F96" s="14">
@@ -34706,17 +34772,21 @@
         <v>33</v>
       </c>
     </row>
-    <row r="97" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E97" s="16"/>
+    <row r="97" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E97" s="17"/>
       <c r="F97" s="14"/>
       <c r="G97" s="14"/>
       <c r="H97" s="14"/>
       <c r="I97" s="14"/>
       <c r="J97" s="14"/>
       <c r="K97" s="14"/>
+      <c r="L97">
+        <f>SUM(F96:K97)</f>
+        <v>105</v>
+      </c>
     </row>
-    <row r="98" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E98" s="17" t="s">
+    <row r="98" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E98" s="15" t="s">
         <v>24</v>
       </c>
       <c r="F98" s="14">
@@ -34738,17 +34808,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="99" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E99" s="17"/>
+    <row r="99" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E99" s="15"/>
       <c r="F99" s="14"/>
       <c r="G99" s="14"/>
       <c r="H99" s="14"/>
       <c r="I99" s="14"/>
       <c r="J99" s="14"/>
       <c r="K99" s="14"/>
+      <c r="L99">
+        <f>SUM(F98:K99)</f>
+        <v>105</v>
+      </c>
     </row>
-    <row r="100" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E100" s="17" t="s">
+    <row r="100" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E100" s="15" t="s">
         <v>25</v>
       </c>
       <c r="F100" s="14">
@@ -34770,17 +34844,21 @@
         <v>40</v>
       </c>
     </row>
-    <row r="101" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E101" s="17"/>
+    <row r="101" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E101" s="15"/>
       <c r="F101" s="14"/>
       <c r="G101" s="14"/>
       <c r="H101" s="14"/>
       <c r="I101" s="14"/>
       <c r="J101" s="14"/>
       <c r="K101" s="14"/>
+      <c r="L101">
+        <f>SUM(F100:K101)</f>
+        <v>105</v>
+      </c>
     </row>
-    <row r="102" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E102" s="17" t="s">
+    <row r="102" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E102" s="15" t="s">
         <v>26</v>
       </c>
       <c r="F102" s="14">
@@ -34802,17 +34880,21 @@
         <v>32</v>
       </c>
     </row>
-    <row r="103" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E103" s="17"/>
+    <row r="103" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E103" s="15"/>
       <c r="F103" s="14"/>
       <c r="G103" s="14"/>
       <c r="H103" s="14"/>
       <c r="I103" s="14"/>
       <c r="J103" s="14"/>
       <c r="K103" s="14"/>
+      <c r="L103">
+        <f>SUM(F102:K103)</f>
+        <v>105</v>
+      </c>
     </row>
-    <row r="104" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E104" s="17" t="s">
+    <row r="104" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E104" s="15" t="s">
         <v>27</v>
       </c>
       <c r="F104" s="14">
@@ -34834,17 +34916,21 @@
         <v>49</v>
       </c>
     </row>
-    <row r="105" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E105" s="17"/>
+    <row r="105" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E105" s="15"/>
       <c r="F105" s="14"/>
       <c r="G105" s="14"/>
       <c r="H105" s="14"/>
       <c r="I105" s="14"/>
       <c r="J105" s="14"/>
       <c r="K105" s="14"/>
+      <c r="L105">
+        <f>SUM(F104:K105)</f>
+        <v>105</v>
+      </c>
     </row>
-    <row r="106" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E106" s="17" t="s">
+    <row r="106" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E106" s="15" t="s">
         <v>28</v>
       </c>
       <c r="F106" s="14">
@@ -34866,17 +34952,21 @@
         <v>40</v>
       </c>
     </row>
-    <row r="107" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E107" s="17"/>
+    <row r="107" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E107" s="15"/>
       <c r="F107" s="14"/>
       <c r="G107" s="14"/>
       <c r="H107" s="14"/>
       <c r="I107" s="14"/>
       <c r="J107" s="14"/>
       <c r="K107" s="14"/>
+      <c r="L107">
+        <f>SUM(F106:K107)</f>
+        <v>105</v>
+      </c>
     </row>
-    <row r="108" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E108" s="17" t="s">
+    <row r="108" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E108" s="15" t="s">
         <v>29</v>
       </c>
       <c r="F108" s="14">
@@ -34898,59 +34988,45 @@
         <v>27</v>
       </c>
     </row>
-    <row r="109" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E109" s="17"/>
+    <row r="109" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E109" s="15"/>
       <c r="F109" s="14"/>
       <c r="G109" s="14"/>
       <c r="H109" s="14"/>
       <c r="I109" s="14"/>
       <c r="J109" s="14"/>
       <c r="K109" s="14"/>
+      <c r="L109">
+        <f>SUM(F108:K109)</f>
+        <v>105</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="J102:J103"/>
-    <mergeCell ref="K102:K103"/>
-    <mergeCell ref="J100:J101"/>
-    <mergeCell ref="K100:K101"/>
-    <mergeCell ref="J98:J99"/>
-    <mergeCell ref="K98:K99"/>
-    <mergeCell ref="J108:J109"/>
-    <mergeCell ref="K108:K109"/>
-    <mergeCell ref="J106:J107"/>
-    <mergeCell ref="K106:K107"/>
-    <mergeCell ref="J104:J105"/>
-    <mergeCell ref="K104:K105"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="F108:F109"/>
-    <mergeCell ref="G108:G109"/>
-    <mergeCell ref="H108:H109"/>
-    <mergeCell ref="I108:I109"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="F106:F107"/>
-    <mergeCell ref="G106:G107"/>
-    <mergeCell ref="H106:H107"/>
-    <mergeCell ref="I106:I107"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="F104:F105"/>
-    <mergeCell ref="G104:G105"/>
-    <mergeCell ref="H104:H105"/>
-    <mergeCell ref="I104:I105"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="F102:F103"/>
-    <mergeCell ref="G102:G103"/>
-    <mergeCell ref="H102:H103"/>
-    <mergeCell ref="I102:I103"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="F100:F101"/>
-    <mergeCell ref="G100:G101"/>
-    <mergeCell ref="H100:H101"/>
-    <mergeCell ref="I100:I101"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="G98:G99"/>
-    <mergeCell ref="H98:H99"/>
-    <mergeCell ref="I98:I99"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
     <mergeCell ref="J96:J97"/>
     <mergeCell ref="K96:K97"/>
     <mergeCell ref="H94:H95"/>
@@ -34965,30 +35041,48 @@
     <mergeCell ref="J94:J95"/>
     <mergeCell ref="K94:K95"/>
     <mergeCell ref="I96:I97"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="G98:G99"/>
+    <mergeCell ref="H98:H99"/>
+    <mergeCell ref="I98:I99"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="F100:F101"/>
+    <mergeCell ref="G100:G101"/>
+    <mergeCell ref="H100:H101"/>
+    <mergeCell ref="I100:I101"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="G102:G103"/>
+    <mergeCell ref="H102:H103"/>
+    <mergeCell ref="I102:I103"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="F104:F105"/>
+    <mergeCell ref="G104:G105"/>
+    <mergeCell ref="H104:H105"/>
+    <mergeCell ref="I104:I105"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="G106:G107"/>
+    <mergeCell ref="H106:H107"/>
+    <mergeCell ref="I106:I107"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="F108:F109"/>
+    <mergeCell ref="G108:G109"/>
+    <mergeCell ref="H108:H109"/>
+    <mergeCell ref="I108:I109"/>
+    <mergeCell ref="J108:J109"/>
+    <mergeCell ref="K108:K109"/>
+    <mergeCell ref="J106:J107"/>
+    <mergeCell ref="K106:K107"/>
+    <mergeCell ref="J104:J105"/>
+    <mergeCell ref="K104:K105"/>
+    <mergeCell ref="J102:J103"/>
+    <mergeCell ref="K102:K103"/>
+    <mergeCell ref="J100:J101"/>
+    <mergeCell ref="K100:K101"/>
+    <mergeCell ref="J98:J99"/>
+    <mergeCell ref="K98:K99"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/3 - RQ/Esterni/Piano Di Progetto/GANTT-EXCEL/SWE-PianoDiLavoro.xlsx
+++ b/3 - RQ/Esterni/Piano Di Progetto/GANTT-EXCEL/SWE-PianoDiLavoro.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13880" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="ARM" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="PDCOD" sheetId="9" r:id="rId7"/>
     <sheet name="VV" sheetId="6" r:id="rId8"/>
     <sheet name="Tot" sheetId="7" r:id="rId9"/>
+    <sheet name="Foglio1" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -134,7 +135,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -193,6 +194,22 @@
       <color theme="1"/>
       <name val="TeXGyreHeros"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="TeXGyreHeros"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="TeXGyreHeros"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -240,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -256,19 +273,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -823,11 +851,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2134747456"/>
-        <c:axId val="2134751008"/>
+        <c:axId val="2107255024"/>
+        <c:axId val="2107228192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2134747456"/>
+        <c:axId val="2107255024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -870,7 +898,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2134751008"/>
+        <c:crossAx val="2107228192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -878,7 +906,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2134751008"/>
+        <c:axId val="2107228192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -929,7 +957,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2134747456"/>
+        <c:crossAx val="2107255024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -943,7 +971,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1972,11 +1999,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2104320208"/>
-        <c:axId val="2104323744"/>
+        <c:axId val="2108643728"/>
+        <c:axId val="2108647264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2104320208"/>
+        <c:axId val="2108643728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2019,7 +2046,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2104323744"/>
+        <c:crossAx val="2108647264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2027,7 +2054,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2104323744"/>
+        <c:axId val="2108647264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2078,7 +2105,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2104320208"/>
+        <c:crossAx val="2108643728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3445,7 +3472,7 @@
                   <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.0</c:v>
+                  <c:v>29.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>22.0</c:v>
@@ -3457,7 +3484,7 @@
                   <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28.0</c:v>
+                  <c:v>26.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3529,7 +3556,7 @@
                   <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>24.0</c:v>
@@ -3541,7 +3568,7 @@
                   <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3557,11 +3584,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2136063280"/>
-        <c:axId val="2136066816"/>
+        <c:axId val="2106396704"/>
+        <c:axId val="2106400240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2136063280"/>
+        <c:axId val="2106396704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3604,7 +3631,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2136066816"/>
+        <c:crossAx val="2106400240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3612,7 +3639,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2136066816"/>
+        <c:axId val="2106400240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3663,7 +3690,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2136063280"/>
+        <c:crossAx val="2106396704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3677,7 +3704,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3998,17 +4024,15 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.0517523467461305"/>
-                  <c:y val="0.104367750946299"/>
+                  <c:x val="-0.0403322245052505"/>
+                  <c:y val="0.0852005687495979"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -4019,9 +4043,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -4040,9 +4062,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -4112,9 +4132,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -4147,19 +4165,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>11.0</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.0</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>193.0</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>91.0</c:v>
+                  <c:v>97.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4207,7 +4225,6 @@
         <c:idx val="9"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -4520,9 +4537,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -4541,9 +4556,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -4613,9 +4626,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -4648,19 +4659,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>330.0</c:v>
+                  <c:v>390.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>120.0</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>462.0</c:v>
+                  <c:v>924.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2055.0</c:v>
+                  <c:v>2160.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1155.0</c:v>
+                  <c:v>1245.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4708,7 +4719,6 @@
         <c:idx val="9"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -5201,7 +5211,7 @@
                   <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.0</c:v>
+                  <c:v>29.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>22.0</c:v>
@@ -5213,7 +5223,7 @@
                   <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28.0</c:v>
+                  <c:v>26.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5279,13 +5289,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>16.0</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.0</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>24.0</c:v>
@@ -5297,7 +5307,7 @@
                   <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5313,11 +5323,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2104420048"/>
-        <c:axId val="2104423584"/>
+        <c:axId val="2109816096"/>
+        <c:axId val="2109819632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2104420048"/>
+        <c:axId val="2109816096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5360,7 +5370,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2104423584"/>
+        <c:crossAx val="2109819632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5368,7 +5378,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2104423584"/>
+        <c:axId val="2109819632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5419,7 +5429,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2104420048"/>
+        <c:crossAx val="2109816096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5433,7 +5443,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5733,9 +5742,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -5805,9 +5812,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -5840,19 +5845,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>18.0</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>86.0</c:v>
+                  <c:v>107.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>193.0</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>133.0</c:v>
+                  <c:v>139.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5900,7 +5905,6 @@
         <c:idx val="9"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -6203,9 +6207,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -6275,9 +6277,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -6310,19 +6310,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>540.0</c:v>
+                  <c:v>600.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>260.0</c:v>
+                  <c:v>240.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1892.0</c:v>
+                  <c:v>2354.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2055.0</c:v>
+                  <c:v>3000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1785.0</c:v>
+                  <c:v>2085.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6370,7 +6370,6 @@
         <c:idx val="9"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -6707,9 +6706,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -6792,7 +6789,6 @@
         <c:idx val="7"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -7397,11 +7393,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2104452928"/>
-        <c:axId val="2104456464"/>
+        <c:axId val="2109767440"/>
+        <c:axId val="2109833568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2104452928"/>
+        <c:axId val="2109767440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7444,7 +7440,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2104456464"/>
+        <c:crossAx val="2109833568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7452,7 +7448,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2104456464"/>
+        <c:axId val="2109833568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7503,7 +7499,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2104452928"/>
+        <c:crossAx val="2109767440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7517,6 +7513,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7940,19 +7937,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>14.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>8.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11.0</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>69.0</c:v>
+                  <c:v>53.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8300,7 +8297,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -8324,7 +8320,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -8332,7 +8327,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.109240159365692"/>
+                  <c:y val="0.0458165109506451"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -8347,7 +8347,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="ctr"/>
+              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -8356,7 +8356,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -8364,7 +8363,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -8388,7 +8386,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -8396,7 +8393,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -8420,7 +8416,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -8581,19 +8576,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>420.0</c:v>
+                  <c:v>240.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>160.0</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>264.0</c:v>
+                  <c:v>132.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1035.0</c:v>
+                  <c:v>795.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>165.0</c:v>
+                  <c:v>120.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8641,7 +8636,6 @@
         <c:idx val="9"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -8982,8 +8976,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.043000656167979"/>
-                  <c:y val="0.0838101487314086"/>
+                  <c:x val="-0.0266607482888168"/>
+                  <c:y val="0.0715190191933973"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -8994,17 +8988,15 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.126665791776028"/>
-                  <c:y val="0.250382400116652"/>
+                  <c:x val="-0.0939860274818589"/>
+                  <c:y val="0.24546605346898"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -9015,17 +9007,15 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.110312992125984"/>
-                  <c:y val="0.109202391367746"/>
+                  <c:x val="-0.0596594359528588"/>
+                  <c:y val="0.101827785907293"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -9036,9 +9026,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -9057,9 +9045,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -9078,9 +9064,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -9150,9 +9134,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -9188,22 +9170,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>41.0</c:v>
+                  <c:v>37.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.0</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>218.0</c:v>
+                  <c:v>233.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>204.0</c:v>
+                  <c:v>208.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>281.0</c:v>
+                  <c:v>257.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9255,7 +9237,6 @@
         <c:idx val="11"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -9608,9 +9589,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -9629,9 +9608,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -9650,9 +9627,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -9722,9 +9697,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -9760,22 +9733,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1230.0</c:v>
+                  <c:v>1110.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>620.0</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>750.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4796.0</c:v>
+                  <c:v>5126.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2220.0</c:v>
+                  <c:v>2280.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4005.0</c:v>
+                  <c:v>3855.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9827,7 +9800,6 @@
         <c:idx val="11"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -9978,7 +9950,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="1">
-                  <c:v>9.0</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>7.0</c:v>
@@ -10398,7 +10370,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="1">
-                  <c:v>33.0</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>46.0</c:v>
@@ -10432,11 +10404,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2136540544"/>
-        <c:axId val="2136544112"/>
+        <c:axId val="2107554800"/>
+        <c:axId val="2106522480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2136540544"/>
+        <c:axId val="2107554800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10479,7 +10451,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2136544112"/>
+        <c:crossAx val="2106522480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10487,7 +10459,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2136544112"/>
+        <c:axId val="2106522480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10538,7 +10510,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2136540544"/>
+        <c:crossAx val="2107554800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10552,7 +10524,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10917,9 +10888,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -11010,7 +10979,6 @@
         <c:idx val="9"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -11674,11 +11642,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2133755952"/>
-        <c:axId val="2133759488"/>
+        <c:axId val="2109136176"/>
+        <c:axId val="2109139712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2133755952"/>
+        <c:axId val="2109136176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11721,7 +11689,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2133759488"/>
+        <c:crossAx val="2109139712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11729,7 +11697,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2133759488"/>
+        <c:axId val="2109139712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11780,7 +11748,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2133755952"/>
+        <c:crossAx val="2109136176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12116,11 +12084,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="65"/>
-        <c:axId val="2134800240"/>
-        <c:axId val="2134803872"/>
+        <c:axId val="2108480672"/>
+        <c:axId val="2108534368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2134800240"/>
+        <c:axId val="2108480672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12158,7 +12126,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2134803872"/>
+        <c:crossAx val="2108534368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12166,7 +12134,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2134803872"/>
+        <c:axId val="2108534368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12229,7 +12197,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2134800240"/>
+        <c:crossAx val="2108480672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12807,11 +12775,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2133921072"/>
-        <c:axId val="2133917520"/>
+        <c:axId val="2106239536"/>
+        <c:axId val="2106243072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2133921072"/>
+        <c:axId val="2106239536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12854,7 +12822,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2133917520"/>
+        <c:crossAx val="2106243072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12862,7 +12830,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2133917520"/>
+        <c:axId val="2106243072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12913,7 +12881,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2133921072"/>
+        <c:crossAx val="2106239536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13947,11 +13915,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2135031936"/>
-        <c:axId val="2135035472"/>
+        <c:axId val="2106290576"/>
+        <c:axId val="2106294112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2135031936"/>
+        <c:axId val="2106290576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13994,7 +13962,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2135035472"/>
+        <c:crossAx val="2106294112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14002,7 +13970,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2135035472"/>
+        <c:axId val="2106294112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14053,7 +14021,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2135031936"/>
+        <c:crossAx val="2106290576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -31521,7 +31489,7 @@
   <dimension ref="A1:H92"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScale="83" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31775,52 +31743,52 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47" s="10">
         <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B49" s="10">
         <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B51" s="10">
         <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B53" s="7">
+      <c r="B53" s="10">
         <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
@@ -31828,84 +31796,246 @@
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B83" s="7">
+      <c r="B83" s="10">
         <v>90</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="8"/>
-      <c r="B84" s="7"/>
+      <c r="A84" s="11"/>
+      <c r="B84" s="10"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="8" t="s">
+      <c r="A85" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B85" s="7">
+      <c r="B85" s="10">
         <v>60</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="8"/>
-      <c r="B86" s="7"/>
+      <c r="A86" s="11"/>
+      <c r="B86" s="10"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="8" t="s">
+      <c r="A87" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B87" s="7">
+      <c r="B87" s="10">
         <v>750</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="8"/>
-      <c r="B88" s="7"/>
+      <c r="A88" s="11"/>
+      <c r="B88" s="10"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="8" t="s">
+      <c r="A89" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B89" s="7">
+      <c r="B89" s="10">
         <v>210</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="8"/>
-      <c r="B90" s="7"/>
+      <c r="A90" s="11"/>
+      <c r="B90" s="10"/>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="9"/>
-      <c r="B91" s="7"/>
+      <c r="B91" s="10"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="9"/>
-      <c r="B92" s="7"/>
+      <c r="B92" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
     <mergeCell ref="A91:A92"/>
     <mergeCell ref="B91:B92"/>
     <mergeCell ref="A87:A88"/>
     <mergeCell ref="B87:B88"/>
     <mergeCell ref="A89:A90"/>
     <mergeCell ref="B89:B90"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="7">
+        <v>7</v>
+      </c>
+      <c r="B1" s="7">
+        <v>28</v>
+      </c>
+      <c r="C1" s="8">
+        <v>17</v>
+      </c>
+      <c r="D1" s="8">
+        <v>47</v>
+      </c>
+      <c r="E1">
+        <v>16</v>
+      </c>
+      <c r="F1">
+        <f t="shared" ref="F1:F7" si="0">SUM(A1:E1)</f>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
+        <v>7</v>
+      </c>
+      <c r="B2" s="7">
+        <v>28</v>
+      </c>
+      <c r="C2" s="8">
+        <v>17</v>
+      </c>
+      <c r="D2" s="8">
+        <v>46</v>
+      </c>
+      <c r="E2">
+        <v>17</v>
+      </c>
+      <c r="F2">
+        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>8</v>
+      </c>
+      <c r="B3" s="7">
+        <v>28</v>
+      </c>
+      <c r="C3" s="8">
+        <v>18</v>
+      </c>
+      <c r="D3" s="8">
+        <v>45</v>
+      </c>
+      <c r="E3">
+        <v>16</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>7</v>
+      </c>
+      <c r="B4" s="7">
+        <v>28</v>
+      </c>
+      <c r="C4" s="8">
+        <v>17</v>
+      </c>
+      <c r="D4" s="8">
+        <v>46</v>
+      </c>
+      <c r="E4">
+        <v>17</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>7</v>
+      </c>
+      <c r="B5" s="7">
+        <v>29</v>
+      </c>
+      <c r="C5" s="8">
+        <v>17</v>
+      </c>
+      <c r="D5" s="8">
+        <v>46</v>
+      </c>
+      <c r="E5">
+        <v>16</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <v>7</v>
+      </c>
+      <c r="B6" s="7">
+        <v>28</v>
+      </c>
+      <c r="C6" s="8">
+        <v>18</v>
+      </c>
+      <c r="D6" s="8">
+        <v>45</v>
+      </c>
+      <c r="E6">
+        <v>17</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <v>7</v>
+      </c>
+      <c r="B7" s="7">
+        <v>29</v>
+      </c>
+      <c r="C7" s="8">
+        <v>17</v>
+      </c>
+      <c r="D7" s="8">
+        <v>46</v>
+      </c>
+      <c r="E7">
+        <v>16</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -31970,8 +32100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A43" zoomScale="75" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView showRuler="0" zoomScale="178" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -32225,52 +32355,52 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B49" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B51" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B53" s="7">
+      <c r="B53" s="10">
         <v>30</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B55" s="7">
+      <c r="B55" s="10">
         <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -32292,8 +32422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H87"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A76" zoomScale="125" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView showRuler="0" zoomScale="125" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -32547,103 +32677,111 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43" s="10">
         <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45" s="10">
         <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47" s="10">
         <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B49" s="10">
         <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="8" t="s">
+      <c r="A80" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B80" s="7">
+      <c r="B80" s="10">
         <v>180</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="8"/>
-      <c r="B81" s="7"/>
+      <c r="A81" s="11"/>
+      <c r="B81" s="10"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="8" t="s">
+      <c r="A82" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B82" s="7">
+      <c r="B82" s="10">
         <v>140</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="8"/>
-      <c r="B83" s="7"/>
+      <c r="A83" s="11"/>
+      <c r="B83" s="10"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="8" t="s">
+      <c r="A84" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B84" s="7">
+      <c r="B84" s="10">
         <v>2640</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="8"/>
-      <c r="B85" s="7"/>
+      <c r="A85" s="11"/>
+      <c r="B85" s="10"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="8" t="s">
+      <c r="A86" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B86" s="7">
+      <c r="B86" s="10">
         <v>975</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="8"/>
-      <c r="B87" s="7"/>
+      <c r="A87" s="11"/>
+      <c r="B87" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
     <mergeCell ref="A84:A85"/>
     <mergeCell ref="B84:B85"/>
     <mergeCell ref="A86:A87"/>
@@ -32652,14 +32790,6 @@
     <mergeCell ref="B80:B81"/>
     <mergeCell ref="A82:A83"/>
     <mergeCell ref="B82:B83"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -32671,7 +32801,7 @@
   <dimension ref="A1:H93"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScale="124" workbookViewId="0">
-      <selection activeCell="D92" sqref="D92"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -32925,103 +33055,111 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B49" s="10">
         <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B51" s="10">
         <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B53" s="7">
+      <c r="B53" s="10">
         <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B55" s="7">
+      <c r="B55" s="10">
         <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="8" t="s">
+      <c r="A86" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B86" s="7">
+      <c r="B86" s="10">
         <v>210</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="8"/>
-      <c r="B87" s="7"/>
+      <c r="A87" s="11"/>
+      <c r="B87" s="10"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="8" t="s">
+      <c r="A88" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B88" s="7">
+      <c r="B88" s="10">
         <v>140</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="8"/>
-      <c r="B89" s="7"/>
+      <c r="A89" s="11"/>
+      <c r="B89" s="10"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="8" t="s">
+      <c r="A90" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B90" s="7">
+      <c r="B90" s="10">
         <v>1430</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="8"/>
-      <c r="B91" s="7"/>
+      <c r="A91" s="11"/>
+      <c r="B91" s="10"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="8" t="s">
+      <c r="A92" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B92" s="7">
+      <c r="B92" s="10">
         <v>630</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="8"/>
-      <c r="B93" s="7"/>
+      <c r="A93" s="11"/>
+      <c r="B93" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
     <mergeCell ref="A90:A91"/>
     <mergeCell ref="B90:B91"/>
     <mergeCell ref="A92:A93"/>
@@ -33030,14 +33168,6 @@
     <mergeCell ref="B86:B87"/>
     <mergeCell ref="A88:A89"/>
     <mergeCell ref="B88:B89"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -33048,8 +33178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H104"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A69" zoomScale="135" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView showRuler="0" topLeftCell="A40" zoomScale="135" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -33154,10 +33284,10 @@
         <v>11</v>
       </c>
       <c r="F4" s="4">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G4" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" si="0"/>
@@ -33262,10 +33392,10 @@
         <v>0</v>
       </c>
       <c r="F8" s="4">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G8" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H8" s="4">
         <f t="shared" si="0"/>
@@ -33316,174 +33446,161 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B43" s="7">
-        <v>11</v>
+      <c r="B43" s="10">
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B45" s="7">
-        <v>6</v>
+      <c r="B45" s="10">
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B47" s="7">
-        <v>21</v>
+      <c r="B47" s="10">
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B49" s="7">
-        <v>193</v>
+      <c r="B49" s="10">
+        <v>200</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B51" s="7">
-        <v>91</v>
+      <c r="B51" s="10">
+        <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="8" t="s">
+      <c r="A77" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B77" s="7">
-        <v>330</v>
+      <c r="B77" s="10">
+        <v>390</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="8"/>
-      <c r="B78" s="7"/>
+      <c r="A78" s="11"/>
+      <c r="B78" s="10"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="8" t="s">
+      <c r="A79" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B79" s="7">
-        <v>120</v>
+      <c r="B79" s="10">
+        <v>100</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="8"/>
-      <c r="B80" s="7"/>
+      <c r="A80" s="11"/>
+      <c r="B80" s="10"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="8" t="s">
+      <c r="A81" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B81" s="7">
-        <v>462</v>
+      <c r="B81" s="10">
+        <f>462*2</f>
+        <v>924</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="8"/>
-      <c r="B82" s="7"/>
+      <c r="A82" s="11"/>
+      <c r="B82" s="10"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B83" s="7">
-        <v>2055</v>
+      <c r="B83" s="10">
+        <v>2160</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="8"/>
-      <c r="B84" s="7"/>
+      <c r="A84" s="11"/>
+      <c r="B84" s="10"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="8" t="s">
+      <c r="A85" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B85" s="7">
-        <f>1155</f>
-        <v>1155</v>
+      <c r="B85" s="10">
+        <f>1155+90</f>
+        <v>1245</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="8"/>
-      <c r="B86" s="7"/>
+      <c r="A86" s="11"/>
+      <c r="B86" s="10"/>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B97" s="7">
+      <c r="B97" s="10">
         <v>210</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B98" s="7"/>
+      <c r="B98" s="10"/>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B99" s="7">
+      <c r="B99" s="10">
         <v>140</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B100" s="7"/>
+      <c r="B100" s="10"/>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B101" s="7">
+      <c r="B101" s="10">
         <v>1430</v>
       </c>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B102" s="7"/>
+      <c r="B102" s="10"/>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B103" s="7">
+      <c r="B103" s="10">
         <v>630</v>
       </c>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B104" s="7"/>
+      <c r="B104" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
     <mergeCell ref="A49:A50"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="A51:A52"/>
@@ -33494,6 +33611,20 @@
     <mergeCell ref="B45:B46"/>
     <mergeCell ref="A47:A48"/>
     <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -33504,11 +33635,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="I1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView showRuler="0" zoomScale="138" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
@@ -33556,11 +33690,11 @@
         <v>30</v>
       </c>
       <c r="G2" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2" s="4">
         <f>SUM(B2:G2)</f>
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -33607,10 +33741,10 @@
         <v>16</v>
       </c>
       <c r="F4" s="4">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G4" s="4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" si="0"/>
@@ -33715,10 +33849,10 @@
         <v>15</v>
       </c>
       <c r="F8" s="4">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G8" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H8" s="4">
         <f t="shared" si="0"/>
@@ -33748,11 +33882,11 @@
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" si="1"/>
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -33764,127 +33898,139 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="7">
-        <v>18</v>
+      <c r="B19" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="7">
-        <v>13</v>
+      <c r="B21" s="10">
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="7">
-        <v>86</v>
+      <c r="B23" s="10">
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="7">
-        <v>193</v>
+      <c r="B25" s="10">
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="7">
-        <v>133</v>
+      <c r="B27" s="10">
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="7">
-        <v>540</v>
+      <c r="B36" s="10">
+        <v>600</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="8"/>
-      <c r="B37" s="7"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="10"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="7">
-        <v>260</v>
+      <c r="B38" s="10">
+        <v>240</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="8"/>
-      <c r="B39" s="7"/>
+      <c r="A39" s="11"/>
+      <c r="B39" s="10"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B40" s="7">
-        <v>1892</v>
+      <c r="B40" s="10">
+        <v>2354</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="8"/>
-      <c r="B41" s="7"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="10"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B42" s="7">
-        <v>2055</v>
+      <c r="B42" s="10">
+        <v>3000</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="8"/>
-      <c r="B43" s="7"/>
+      <c r="A43" s="11"/>
+      <c r="B43" s="10"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B44" s="7">
-        <v>1785</v>
+      <c r="B44" s="10">
+        <v>2085</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="8"/>
-      <c r="B45" s="7"/>
+      <c r="A45" s="11"/>
+      <c r="B45" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
     <mergeCell ref="A44:A45"/>
     <mergeCell ref="B44:B45"/>
     <mergeCell ref="A38:A39"/>
@@ -33893,18 +34039,6 @@
     <mergeCell ref="B40:B41"/>
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="B42:B43"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -33915,8 +34049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A71" zoomScale="113" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="113" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34145,7 +34279,7 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <f t="shared" si="1"/>
+        <f>SUM(C2:C8)</f>
         <v>8</v>
       </c>
       <c r="D9">
@@ -34227,131 +34361,141 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="7">
-        <v>14</v>
+      <c r="B38" s="10">
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B40" s="7">
-        <v>8</v>
+      <c r="B40" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B42" s="7">
-        <v>12</v>
+      <c r="B42" s="10">
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B44" s="7">
-        <v>11</v>
+      <c r="B44" s="10">
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="11"/>
-      <c r="B45" s="7"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="10"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B46" s="12">
-        <v>69</v>
+      <c r="B46" s="13">
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="7"/>
-      <c r="B47" s="12"/>
+      <c r="A47" s="10"/>
+      <c r="B47" s="13"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B75" s="7">
-        <v>420</v>
+      <c r="B75" s="10">
+        <v>240</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B76" s="7"/>
+      <c r="B76" s="10"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="8" t="s">
+      <c r="A77" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B77" s="7">
-        <v>160</v>
+      <c r="B77" s="10">
+        <v>60</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="8"/>
-      <c r="B78" s="7"/>
+      <c r="A78" s="11"/>
+      <c r="B78" s="10"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="8" t="s">
+      <c r="A79" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B79" s="7">
-        <v>264</v>
+      <c r="B79" s="10">
+        <v>132</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="8"/>
-      <c r="B80" s="7"/>
+      <c r="A80" s="11"/>
+      <c r="B80" s="10"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="8" t="s">
+      <c r="A81" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B81" s="7">
-        <v>1035</v>
+      <c r="B81" s="10">
+        <v>795</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="8"/>
-      <c r="B82" s="7"/>
+      <c r="A82" s="11"/>
+      <c r="B82" s="10"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B83" s="12">
-        <v>165</v>
+      <c r="B83" s="13">
+        <v>120</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="8"/>
-      <c r="B84" s="12"/>
+      <c r="A84" s="11"/>
+      <c r="B84" s="13"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="13" t="s">
+      <c r="A85" s="12" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="13"/>
+      <c r="A86" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B46:B47"/>
     <mergeCell ref="A77:A78"/>
     <mergeCell ref="B75:B76"/>
     <mergeCell ref="A79:A80"/>
@@ -34362,16 +34506,6 @@
     <mergeCell ref="B79:B80"/>
     <mergeCell ref="A83:A84"/>
     <mergeCell ref="B81:B82"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B46:B47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -34383,155 +34517,155 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:L109"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="E86" workbookViewId="0">
-      <selection activeCell="L111" sqref="L111"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="K96" sqref="K96:K97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="7">
-        <v>41</v>
+      <c r="B3" s="10">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="7">
-        <v>31</v>
+      <c r="B5" s="10">
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="10">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="7">
-        <v>218</v>
+      <c r="B9" s="10">
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="7">
-        <v>204</v>
+      <c r="B11" s="10">
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="7">
-        <v>281</v>
+      <c r="B13" s="10">
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B43" s="7">
-        <v>1230</v>
+      <c r="B43" s="10">
+        <v>1110</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="8"/>
-      <c r="B44" s="7"/>
+      <c r="A44" s="11"/>
+      <c r="B44" s="10"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B45" s="7">
-        <v>620</v>
+      <c r="B45" s="10">
+        <v>500</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="8"/>
-      <c r="B46" s="7"/>
+      <c r="A46" s="11"/>
+      <c r="B46" s="10"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47" s="10">
         <v>750</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="8"/>
-      <c r="B48" s="7"/>
+      <c r="A48" s="11"/>
+      <c r="B48" s="10"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B49" s="7">
-        <v>4796</v>
+      <c r="B49" s="10">
+        <v>5126</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="8"/>
-      <c r="B50" s="7"/>
+      <c r="A50" s="11"/>
+      <c r="B50" s="10"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B51" s="7">
-        <v>2220</v>
+      <c r="B51" s="10">
+        <v>2280</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="8"/>
-      <c r="B52" s="7"/>
+      <c r="A52" s="11"/>
+      <c r="B52" s="10"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B53" s="7">
-        <v>4005</v>
+      <c r="B53" s="10">
+        <v>3855</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="8"/>
-      <c r="B54" s="7"/>
+      <c r="A54" s="11"/>
+      <c r="B54" s="10"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
@@ -34718,284 +34852,284 @@
       </c>
     </row>
     <row r="94" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E94" s="16" t="s">
+      <c r="E94" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F94" s="16" t="s">
+      <c r="F94" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G94" s="16" t="s">
+      <c r="G94" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H94" s="16" t="s">
+      <c r="H94" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I94" s="16" t="s">
+      <c r="I94" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="J94" s="16" t="s">
+      <c r="J94" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="K94" s="16" t="s">
+      <c r="K94" s="20" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="95" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E95" s="16"/>
-      <c r="F95" s="16"/>
-      <c r="G95" s="16"/>
-      <c r="H95" s="16"/>
-      <c r="I95" s="16"/>
-      <c r="J95" s="16"/>
-      <c r="K95" s="16"/>
+      <c r="E95" s="18"/>
+      <c r="F95" s="18"/>
+      <c r="G95" s="18"/>
+      <c r="H95" s="18"/>
+      <c r="I95" s="18"/>
+      <c r="J95" s="18"/>
+      <c r="K95" s="20"/>
     </row>
     <row r="96" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E96" s="17" t="s">
+      <c r="E96" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="F96" s="14">
-        <v>9</v>
-      </c>
-      <c r="G96" s="14">
+      <c r="F96" s="16">
+        <v>10</v>
+      </c>
+      <c r="G96" s="16">
         <v>0</v>
       </c>
-      <c r="H96" s="14">
+      <c r="H96" s="16">
         <v>6</v>
       </c>
-      <c r="I96" s="14">
+      <c r="I96" s="16">
         <v>35</v>
       </c>
-      <c r="J96" s="14">
+      <c r="J96" s="16">
         <v>22</v>
       </c>
-      <c r="K96" s="14">
-        <v>33</v>
+      <c r="K96" s="17">
+        <v>31</v>
       </c>
     </row>
     <row r="97" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E97" s="17"/>
-      <c r="F97" s="14"/>
-      <c r="G97" s="14"/>
-      <c r="H97" s="14"/>
-      <c r="I97" s="14"/>
-      <c r="J97" s="14"/>
-      <c r="K97" s="14"/>
+      <c r="E97" s="19"/>
+      <c r="F97" s="16"/>
+      <c r="G97" s="16"/>
+      <c r="H97" s="16"/>
+      <c r="I97" s="16"/>
+      <c r="J97" s="16"/>
+      <c r="K97" s="17"/>
       <c r="L97">
         <f>SUM(F96:K97)</f>
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="98" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E98" s="15" t="s">
+      <c r="E98" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F98" s="14">
+      <c r="F98" s="16">
         <v>7</v>
       </c>
-      <c r="G98" s="14">
+      <c r="G98" s="16">
         <v>3</v>
       </c>
-      <c r="H98" s="14">
+      <c r="H98" s="16">
         <v>6</v>
       </c>
-      <c r="I98" s="14">
+      <c r="I98" s="16">
         <v>27</v>
       </c>
-      <c r="J98" s="14">
+      <c r="J98" s="16">
         <v>16</v>
       </c>
-      <c r="K98" s="14">
+      <c r="K98" s="22">
         <v>46</v>
       </c>
     </row>
     <row r="99" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E99" s="15"/>
-      <c r="F99" s="14"/>
-      <c r="G99" s="14"/>
-      <c r="H99" s="14"/>
-      <c r="I99" s="14"/>
-      <c r="J99" s="14"/>
-      <c r="K99" s="14"/>
+      <c r="E99" s="21"/>
+      <c r="F99" s="16"/>
+      <c r="G99" s="16"/>
+      <c r="H99" s="16"/>
+      <c r="I99" s="16"/>
+      <c r="J99" s="16"/>
+      <c r="K99" s="22"/>
       <c r="L99">
         <f>SUM(F98:K99)</f>
         <v>105</v>
       </c>
     </row>
     <row r="100" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E100" s="15" t="s">
+      <c r="E100" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F100" s="14">
+      <c r="F100" s="16">
         <v>4</v>
       </c>
-      <c r="G100" s="14">
+      <c r="G100" s="16">
         <v>11</v>
       </c>
-      <c r="H100" s="14">
+      <c r="H100" s="16">
         <v>0</v>
       </c>
-      <c r="I100" s="14">
+      <c r="I100" s="16">
         <v>31</v>
       </c>
-      <c r="J100" s="14">
+      <c r="J100" s="16">
         <v>19</v>
       </c>
-      <c r="K100" s="14">
+      <c r="K100" s="22">
         <v>40</v>
       </c>
     </row>
     <row r="101" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E101" s="15"/>
-      <c r="F101" s="14"/>
-      <c r="G101" s="14"/>
-      <c r="H101" s="14"/>
-      <c r="I101" s="14"/>
-      <c r="J101" s="14"/>
-      <c r="K101" s="14"/>
+      <c r="E101" s="21"/>
+      <c r="F101" s="16"/>
+      <c r="G101" s="16"/>
+      <c r="H101" s="16"/>
+      <c r="I101" s="16"/>
+      <c r="J101" s="16"/>
+      <c r="K101" s="22"/>
       <c r="L101">
         <f>SUM(F100:K101)</f>
         <v>105</v>
       </c>
     </row>
     <row r="102" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E102" s="15" t="s">
+      <c r="E102" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F102" s="14">
+      <c r="F102" s="16">
         <v>4</v>
       </c>
-      <c r="G102" s="14">
+      <c r="G102" s="16">
         <v>5</v>
       </c>
-      <c r="H102" s="14">
+      <c r="H102" s="16">
         <v>7</v>
       </c>
-      <c r="I102" s="14">
+      <c r="I102" s="16">
         <v>40</v>
       </c>
-      <c r="J102" s="14">
+      <c r="J102" s="16">
         <v>17</v>
       </c>
-      <c r="K102" s="14">
+      <c r="K102" s="22">
         <v>32</v>
       </c>
     </row>
     <row r="103" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E103" s="15"/>
-      <c r="F103" s="14"/>
-      <c r="G103" s="14"/>
-      <c r="H103" s="14"/>
-      <c r="I103" s="14"/>
-      <c r="J103" s="14"/>
-      <c r="K103" s="14"/>
+      <c r="E103" s="21"/>
+      <c r="F103" s="16"/>
+      <c r="G103" s="16"/>
+      <c r="H103" s="16"/>
+      <c r="I103" s="16"/>
+      <c r="J103" s="16"/>
+      <c r="K103" s="22"/>
       <c r="L103">
         <f>SUM(F102:K103)</f>
         <v>105</v>
       </c>
     </row>
     <row r="104" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E104" s="15" t="s">
+      <c r="E104" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F104" s="14">
+      <c r="F104" s="16">
         <v>3</v>
       </c>
-      <c r="G104" s="14">
+      <c r="G104" s="16">
         <v>0</v>
       </c>
-      <c r="H104" s="14">
+      <c r="H104" s="16">
         <v>6</v>
       </c>
-      <c r="I104" s="14">
+      <c r="I104" s="16">
         <v>21</v>
       </c>
-      <c r="J104" s="14">
+      <c r="J104" s="16">
         <v>26</v>
       </c>
-      <c r="K104" s="14">
+      <c r="K104" s="22">
         <v>49</v>
       </c>
     </row>
     <row r="105" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E105" s="15"/>
-      <c r="F105" s="14"/>
-      <c r="G105" s="14"/>
-      <c r="H105" s="14"/>
-      <c r="I105" s="14"/>
-      <c r="J105" s="14"/>
-      <c r="K105" s="14"/>
+      <c r="E105" s="21"/>
+      <c r="F105" s="16"/>
+      <c r="G105" s="16"/>
+      <c r="H105" s="16"/>
+      <c r="I105" s="16"/>
+      <c r="J105" s="16"/>
+      <c r="K105" s="22"/>
       <c r="L105">
         <f>SUM(F104:K105)</f>
         <v>105</v>
       </c>
     </row>
     <row r="106" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E106" s="15" t="s">
+      <c r="E106" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F106" s="14">
+      <c r="F106" s="16">
         <v>4</v>
       </c>
-      <c r="G106" s="14">
+      <c r="G106" s="16">
         <v>4</v>
       </c>
-      <c r="H106" s="14">
+      <c r="H106" s="16">
         <v>5</v>
       </c>
-      <c r="I106" s="14">
+      <c r="I106" s="16">
         <v>26</v>
       </c>
-      <c r="J106" s="14">
+      <c r="J106" s="16">
         <v>26</v>
       </c>
-      <c r="K106" s="14">
+      <c r="K106" s="22">
         <v>40</v>
       </c>
     </row>
     <row r="107" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E107" s="15"/>
-      <c r="F107" s="14"/>
-      <c r="G107" s="14"/>
-      <c r="H107" s="14"/>
-      <c r="I107" s="14"/>
-      <c r="J107" s="14"/>
-      <c r="K107" s="14"/>
+      <c r="E107" s="21"/>
+      <c r="F107" s="16"/>
+      <c r="G107" s="16"/>
+      <c r="H107" s="16"/>
+      <c r="I107" s="16"/>
+      <c r="J107" s="16"/>
+      <c r="K107" s="22"/>
       <c r="L107">
         <f>SUM(F106:K107)</f>
         <v>105</v>
       </c>
     </row>
     <row r="108" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E108" s="15" t="s">
+      <c r="E108" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="F108" s="14">
+      <c r="F108" s="16">
         <v>10</v>
       </c>
-      <c r="G108" s="14">
+      <c r="G108" s="16">
         <v>8</v>
       </c>
-      <c r="H108" s="14">
+      <c r="H108" s="16">
         <v>0</v>
       </c>
-      <c r="I108" s="14">
+      <c r="I108" s="16">
         <v>38</v>
       </c>
-      <c r="J108" s="14">
+      <c r="J108" s="16">
         <v>22</v>
       </c>
-      <c r="K108" s="14">
+      <c r="K108" s="22">
         <v>27</v>
       </c>
     </row>
     <row r="109" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E109" s="15"/>
-      <c r="F109" s="14"/>
-      <c r="G109" s="14"/>
-      <c r="H109" s="14"/>
-      <c r="I109" s="14"/>
-      <c r="J109" s="14"/>
-      <c r="K109" s="14"/>
+      <c r="E109" s="21"/>
+      <c r="F109" s="16"/>
+      <c r="G109" s="16"/>
+      <c r="H109" s="16"/>
+      <c r="I109" s="16"/>
+      <c r="J109" s="16"/>
+      <c r="K109" s="22"/>
       <c r="L109">
         <f>SUM(F108:K109)</f>
         <v>105</v>
@@ -35003,30 +35137,48 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="J102:J103"/>
+    <mergeCell ref="K102:K103"/>
+    <mergeCell ref="J100:J101"/>
+    <mergeCell ref="K100:K101"/>
+    <mergeCell ref="J98:J99"/>
+    <mergeCell ref="K98:K99"/>
+    <mergeCell ref="J108:J109"/>
+    <mergeCell ref="K108:K109"/>
+    <mergeCell ref="J106:J107"/>
+    <mergeCell ref="K106:K107"/>
+    <mergeCell ref="J104:J105"/>
+    <mergeCell ref="K104:K105"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="F108:F109"/>
+    <mergeCell ref="G108:G109"/>
+    <mergeCell ref="H108:H109"/>
+    <mergeCell ref="I108:I109"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="G106:G107"/>
+    <mergeCell ref="H106:H107"/>
+    <mergeCell ref="I106:I107"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="F104:F105"/>
+    <mergeCell ref="G104:G105"/>
+    <mergeCell ref="H104:H105"/>
+    <mergeCell ref="I104:I105"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="G102:G103"/>
+    <mergeCell ref="H102:H103"/>
+    <mergeCell ref="I102:I103"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="F100:F101"/>
+    <mergeCell ref="G100:G101"/>
+    <mergeCell ref="H100:H101"/>
+    <mergeCell ref="I100:I101"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="G98:G99"/>
+    <mergeCell ref="H98:H99"/>
+    <mergeCell ref="I98:I99"/>
     <mergeCell ref="J96:J97"/>
     <mergeCell ref="K96:K97"/>
     <mergeCell ref="H94:H95"/>
@@ -35041,48 +35193,30 @@
     <mergeCell ref="J94:J95"/>
     <mergeCell ref="K94:K95"/>
     <mergeCell ref="I96:I97"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="G98:G99"/>
-    <mergeCell ref="H98:H99"/>
-    <mergeCell ref="I98:I99"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="F100:F101"/>
-    <mergeCell ref="G100:G101"/>
-    <mergeCell ref="H100:H101"/>
-    <mergeCell ref="I100:I101"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="F102:F103"/>
-    <mergeCell ref="G102:G103"/>
-    <mergeCell ref="H102:H103"/>
-    <mergeCell ref="I102:I103"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="F104:F105"/>
-    <mergeCell ref="G104:G105"/>
-    <mergeCell ref="H104:H105"/>
-    <mergeCell ref="I104:I105"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="F106:F107"/>
-    <mergeCell ref="G106:G107"/>
-    <mergeCell ref="H106:H107"/>
-    <mergeCell ref="I106:I107"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="F108:F109"/>
-    <mergeCell ref="G108:G109"/>
-    <mergeCell ref="H108:H109"/>
-    <mergeCell ref="I108:I109"/>
-    <mergeCell ref="J108:J109"/>
-    <mergeCell ref="K108:K109"/>
-    <mergeCell ref="J106:J107"/>
-    <mergeCell ref="K106:K107"/>
-    <mergeCell ref="J104:J105"/>
-    <mergeCell ref="K104:K105"/>
-    <mergeCell ref="J102:J103"/>
-    <mergeCell ref="K102:K103"/>
-    <mergeCell ref="J100:J101"/>
-    <mergeCell ref="K100:K101"/>
-    <mergeCell ref="J98:J99"/>
-    <mergeCell ref="K98:K99"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/3 - RQ/Esterni/Piano Di Progetto/GANTT-EXCEL/SWE-PianoDiLavoro.xlsx
+++ b/3 - RQ/Esterni/Piano Di Progetto/GANTT-EXCEL/SWE-PianoDiLavoro.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13880" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="ARM" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="VV" sheetId="6" r:id="rId8"/>
     <sheet name="Tot" sheetId="7" r:id="rId9"/>
     <sheet name="Foglio1" sheetId="10" r:id="rId10"/>
+    <sheet name="Grafici Consuntivo RQ" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="32">
   <si>
     <t>Francesco Bazzerla</t>
   </si>
@@ -257,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -279,14 +280,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -295,8 +298,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -851,11 +853,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2107255024"/>
-        <c:axId val="2107228192"/>
+        <c:axId val="-2133680032"/>
+        <c:axId val="-2133677440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2107255024"/>
+        <c:axId val="-2133680032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -898,7 +900,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2107228192"/>
+        <c:crossAx val="-2133677440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -906,7 +908,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2107228192"/>
+        <c:axId val="-2133677440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -957,7 +959,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2107255024"/>
+        <c:crossAx val="-2133680032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -971,6 +973,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1999,11 +2002,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2108643728"/>
-        <c:axId val="2108647264"/>
+        <c:axId val="-2132633616"/>
+        <c:axId val="-2133578032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2108643728"/>
+        <c:axId val="-2132633616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2046,7 +2049,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2108647264"/>
+        <c:crossAx val="-2133578032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2054,7 +2057,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2108647264"/>
+        <c:axId val="-2133578032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2105,7 +2108,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2108643728"/>
+        <c:crossAx val="-2132633616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2119,7 +2122,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3584,11 +3586,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2106396704"/>
-        <c:axId val="2106400240"/>
+        <c:axId val="-2134429040"/>
+        <c:axId val="-2134479904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2106396704"/>
+        <c:axId val="-2134429040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3631,7 +3633,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2106400240"/>
+        <c:crossAx val="-2134479904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3639,7 +3641,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2106400240"/>
+        <c:axId val="-2134479904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3690,7 +3692,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2106396704"/>
+        <c:crossAx val="-2134429040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4024,7 +4026,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -4043,7 +4047,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -4062,7 +4068,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -4132,7 +4140,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -4225,6 +4235,7 @@
         <c:idx val="9"/>
         <c:delete val="1"/>
       </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -5323,11 +5334,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2109816096"/>
-        <c:axId val="2109819632"/>
+        <c:axId val="-2133388912"/>
+        <c:axId val="-2133385360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2109816096"/>
+        <c:axId val="-2133388912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5370,7 +5381,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2109819632"/>
+        <c:crossAx val="-2133385360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5378,7 +5389,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2109819632"/>
+        <c:axId val="-2133385360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5429,7 +5440,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2109816096"/>
+        <c:crossAx val="-2133388912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7393,11 +7404,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2109767440"/>
-        <c:axId val="2109833568"/>
+        <c:axId val="-2133232432"/>
+        <c:axId val="-2133228896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2109767440"/>
+        <c:axId val="-2133232432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7440,7 +7451,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2109833568"/>
+        <c:crossAx val="-2133228896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7448,7 +7459,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2109833568"/>
+        <c:axId val="-2133228896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7499,7 +7510,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2109767440"/>
+        <c:crossAx val="-2133232432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7834,7 +7845,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -7904,7 +7917,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -7997,6 +8012,7 @@
         <c:idx val="9"/>
         <c:delete val="1"/>
       </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -8988,7 +9004,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -9007,7 +9025,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -9026,7 +9046,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -9045,7 +9067,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -9064,7 +9088,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -9134,7 +9160,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -9182,7 +9210,7 @@
                   <c:v>233.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>208.0</c:v>
+                  <c:v>152.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>257.0</c:v>
@@ -9237,6 +9265,7 @@
         <c:idx val="11"/>
         <c:delete val="1"/>
       </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -9589,7 +9618,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -9608,7 +9639,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -9627,7 +9660,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -9697,7 +9732,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -9800,6 +9837,7 @@
         <c:idx val="11"/>
         <c:delete val="1"/>
       </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -10404,11 +10442,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2107554800"/>
-        <c:axId val="2106522480"/>
+        <c:axId val="-2133115328"/>
+        <c:axId val="-2133111760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2107554800"/>
+        <c:axId val="-2133115328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10451,7 +10489,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2106522480"/>
+        <c:crossAx val="-2133111760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10459,7 +10497,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2106522480"/>
+        <c:axId val="-2133111760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10510,7 +10548,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2107554800"/>
+        <c:crossAx val="-2133115328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10587,6 +10625,940 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="265E91"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0728975630419615"/>
+                  <c:y val="0.125380438187932"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.123928535831755"/>
+                  <c:y val="0.191898953612231"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0928684092494767"/>
+                  <c:y val="0.079030890369473"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.138324404465265"/>
+                  <c:y val="-0.0238764385221078"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.145823283165554"/>
+                  <c:y val="-0.217162848012699"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Grafici Consuntivo RQ'!$C$4:$C$13</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Project Manager </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Amministratore </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Progettista </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Programmatore </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Verificatore </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Grafici Consuntivo RQ'!$D$4:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>53.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="7"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="9"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="265E91"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0392848402134839"/>
+                  <c:y val="-0.00269336962383816"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Grafici Consuntivo RQ'!$D$34:$D$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:axId val="-2036624208"/>
+        <c:axId val="-2061523200"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2036624208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2061523200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2061523200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2036624208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -11092,6 +12064,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11642,11 +12615,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2109136176"/>
-        <c:axId val="2109139712"/>
+        <c:axId val="-2136936240"/>
+        <c:axId val="-2136939792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2109136176"/>
+        <c:axId val="-2136936240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11689,7 +12662,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2109139712"/>
+        <c:crossAx val="-2136939792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11697,7 +12670,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2109139712"/>
+        <c:axId val="-2136939792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11748,7 +12721,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2109136176"/>
+        <c:crossAx val="-2136936240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11762,6 +12735,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11921,9 +12895,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:alpha val="85000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
@@ -11940,9 +12912,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:alpha val="85000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
@@ -11959,9 +12929,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:alpha val="85000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
@@ -12009,6 +12977,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -12084,11 +13053,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="65"/>
-        <c:axId val="2108480672"/>
-        <c:axId val="2108534368"/>
+        <c:axId val="-2135438128"/>
+        <c:axId val="-2135434496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2108480672"/>
+        <c:axId val="-2135438128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12126,7 +13095,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2108534368"/>
+        <c:crossAx val="-2135434496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12134,7 +13103,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2108534368"/>
+        <c:axId val="-2135434496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12197,7 +13166,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2108480672"/>
+        <c:crossAx val="-2135438128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12775,11 +13744,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2106239536"/>
-        <c:axId val="2106243072"/>
+        <c:axId val="-2133560560"/>
+        <c:axId val="-2133557008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2106239536"/>
+        <c:axId val="-2133560560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12822,7 +13791,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2106243072"/>
+        <c:crossAx val="-2133557008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12830,7 +13799,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2106243072"/>
+        <c:axId val="-2133557008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12881,7 +13850,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2106239536"/>
+        <c:crossAx val="-2133560560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13915,11 +14884,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2106290576"/>
-        <c:axId val="2106294112"/>
+        <c:axId val="-2133543168"/>
+        <c:axId val="-2133539632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2106290576"/>
+        <c:axId val="-2133543168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13962,7 +14931,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2106294112"/>
+        <c:crossAx val="-2133539632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13970,7 +14939,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2106294112"/>
+        <c:axId val="-2133539632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14021,7 +14990,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2106290576"/>
+        <c:crossAx val="-2133543168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15259,6 +16228,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors26.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors27.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -25781,6 +26830,1177 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style26.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style27.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="218">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
   <cs:axisTitle>
@@ -29857,6 +32077,536 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>708308</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>189127</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>665975</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>17602</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="19" name="Gruppo 18"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5661308" y="7097927"/>
+          <a:ext cx="8212667" cy="4705275"/>
+          <a:chOff x="5724808" y="6920127"/>
+          <a:chExt cx="8212667" cy="4705275"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="14" name="Gruppo 13"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="5724808" y="6920127"/>
+            <a:ext cx="8212667" cy="4705275"/>
+            <a:chOff x="5686996" y="6919545"/>
+            <a:chExt cx="8180102" cy="4715283"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="7" name="Grafico 6"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="5686996" y="6919545"/>
+            <a:ext cx="8180102" cy="4715283"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="9" name="Connettore 1 8"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7188526" y="7400192"/>
+              <a:ext cx="1" cy="3997244"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="CasellaDiTesto 14"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5924687" y="8409410"/>
+            <a:ext cx="1360528" cy="301218"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0"/>
+          <a:lstStyle>
+            <a:lvl1pPr marL="0" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1100"/>
+              <a:t>PROGRAMMATORE</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="CasellaDiTesto 15"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6271149" y="9262777"/>
+            <a:ext cx="1004928" cy="303411"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0"/>
+          <a:lstStyle>
+            <a:lvl1pPr marL="0" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1100"/>
+              <a:t>PROGETTISTA</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="CasellaDiTesto 16"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7196423" y="10118338"/>
+            <a:ext cx="1387497" cy="301218"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0"/>
+          <a:lstStyle>
+            <a:lvl1pPr marL="0" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1100"/>
+              <a:t>AMMINISTRATORE</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="CasellaDiTesto 17"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6451874" y="10892580"/>
+            <a:ext cx="1008126" cy="301218"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0"/>
+          <a:lstStyle>
+            <a:lvl1pPr marL="0" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1100"/>
+              <a:t>PROJECT</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="it-IT" sz="1100"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1100"/>
+              <a:t>MANAGER</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.06358</cdr:x>
+      <cdr:y>0.1411</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.18798</cdr:x>
+      <cdr:y>0.20498</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="CasellaDiTesto 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="520121" y="656794"/>
+          <a:ext cx="1017701" cy="297357"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100"/>
+            <a:t>VERIFICATORE</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -31743,52 +34493,52 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B47" s="10">
+      <c r="B47" s="9">
         <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10"/>
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B49" s="10">
+      <c r="B49" s="9">
         <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="10"/>
-      <c r="B50" s="10"/>
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B51" s="10">
+      <c r="B51" s="9">
         <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="10"/>
-      <c r="B52" s="10"/>
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B53" s="10">
+      <c r="B53" s="9">
         <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="10"/>
-      <c r="B54" s="10"/>
+      <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
@@ -31796,81 +34546,81 @@
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="11" t="s">
+      <c r="A83" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B83" s="10">
+      <c r="B83" s="9">
         <v>90</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="11"/>
-      <c r="B84" s="10"/>
+      <c r="A84" s="10"/>
+      <c r="B84" s="9"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="11" t="s">
+      <c r="A85" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B85" s="10">
+      <c r="B85" s="9">
         <v>60</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="11"/>
-      <c r="B86" s="10"/>
+      <c r="A86" s="10"/>
+      <c r="B86" s="9"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="11" t="s">
+      <c r="A87" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B87" s="10">
+      <c r="B87" s="9">
         <v>750</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="11"/>
-      <c r="B88" s="10"/>
+      <c r="A88" s="10"/>
+      <c r="B88" s="9"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="11" t="s">
+      <c r="A89" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B89" s="10">
+      <c r="B89" s="9">
         <v>210</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="11"/>
-      <c r="B90" s="10"/>
+      <c r="A90" s="10"/>
+      <c r="B90" s="9"/>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="9"/>
-      <c r="B91" s="10"/>
+      <c r="A91" s="11"/>
+      <c r="B91" s="9"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="9"/>
-      <c r="B92" s="10"/>
+      <c r="A92" s="11"/>
+      <c r="B92" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
     <mergeCell ref="A47:A48"/>
     <mergeCell ref="B47:B48"/>
     <mergeCell ref="A49:A50"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="A51:A52"/>
     <mergeCell ref="B51:B52"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -32039,12 +34789,171 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:D43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="F32" zoomScaleNormal="187" zoomScalePageLayoutView="187" workbookViewId="0">
+      <selection activeCell="R33" sqref="R33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="9">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C34" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C35" s="9"/>
+      <c r="D35" s="13"/>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C36" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C37" s="9"/>
+      <c r="D37" s="13"/>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C38" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C39" s="9"/>
+      <c r="D39" s="13"/>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C40" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C41" s="9"/>
+      <c r="D41" s="23"/>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C42" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C43" s="9"/>
+      <c r="D43" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B6"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="P77" sqref="P77"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -32355,52 +35264,52 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B49" s="10">
+      <c r="B49" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="10"/>
-      <c r="B50" s="10"/>
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B51" s="10">
+      <c r="B51" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="10"/>
-      <c r="B52" s="10"/>
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B53" s="10">
+      <c r="B53" s="9">
         <v>30</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="10"/>
-      <c r="B54" s="10"/>
+      <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B55" s="10">
+      <c r="B55" s="9">
         <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="10"/>
-      <c r="B56" s="10"/>
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -32677,103 +35586,111 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B43" s="10">
+      <c r="B43" s="9">
         <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B45" s="10">
+      <c r="B45" s="9">
         <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B47" s="10">
+      <c r="B47" s="9">
         <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10"/>
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B49" s="10">
+      <c r="B49" s="9">
         <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="10"/>
-      <c r="B50" s="10"/>
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="11" t="s">
+      <c r="A80" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B80" s="10">
+      <c r="B80" s="9">
         <v>180</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="11"/>
-      <c r="B81" s="10"/>
+      <c r="A81" s="10"/>
+      <c r="B81" s="9"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="11" t="s">
+      <c r="A82" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B82" s="10">
+      <c r="B82" s="9">
         <v>140</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="11"/>
-      <c r="B83" s="10"/>
+      <c r="A83" s="10"/>
+      <c r="B83" s="9"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="11" t="s">
+      <c r="A84" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B84" s="10">
+      <c r="B84" s="9">
         <v>2640</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="11"/>
-      <c r="B85" s="10"/>
+      <c r="A85" s="10"/>
+      <c r="B85" s="9"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="11" t="s">
+      <c r="A86" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B86" s="10">
+      <c r="B86" s="9">
         <v>975</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="11"/>
-      <c r="B87" s="10"/>
+      <c r="A87" s="10"/>
+      <c r="B87" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:B83"/>
     <mergeCell ref="A49:A50"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="A43:A44"/>
@@ -32782,14 +35699,6 @@
     <mergeCell ref="B45:B46"/>
     <mergeCell ref="A47:A48"/>
     <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:B83"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -33055,103 +35964,111 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B49" s="10">
+      <c r="B49" s="9">
         <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="10"/>
-      <c r="B50" s="10"/>
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B51" s="10">
+      <c r="B51" s="9">
         <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="10"/>
-      <c r="B52" s="10"/>
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B53" s="10">
+      <c r="B53" s="9">
         <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="10"/>
-      <c r="B54" s="10"/>
+      <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B55" s="10">
+      <c r="B55" s="9">
         <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="10"/>
-      <c r="B56" s="10"/>
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="11" t="s">
+      <c r="A86" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B86" s="10">
+      <c r="B86" s="9">
         <v>210</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="11"/>
-      <c r="B87" s="10"/>
+      <c r="A87" s="10"/>
+      <c r="B87" s="9"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="11" t="s">
+      <c r="A88" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B88" s="10">
+      <c r="B88" s="9">
         <v>140</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="11"/>
-      <c r="B89" s="10"/>
+      <c r="A89" s="10"/>
+      <c r="B89" s="9"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="11" t="s">
+      <c r="A90" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B90" s="10">
+      <c r="B90" s="9">
         <v>1430</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="11"/>
-      <c r="B91" s="10"/>
+      <c r="A91" s="10"/>
+      <c r="B91" s="9"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="11" t="s">
+      <c r="A92" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B92" s="10">
+      <c r="B92" s="9">
         <v>630</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="11"/>
-      <c r="B93" s="10"/>
+      <c r="A93" s="10"/>
+      <c r="B93" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B88:B89"/>
     <mergeCell ref="A55:A56"/>
     <mergeCell ref="B55:B56"/>
     <mergeCell ref="A49:A50"/>
@@ -33160,14 +36077,6 @@
     <mergeCell ref="B51:B52"/>
     <mergeCell ref="A53:A54"/>
     <mergeCell ref="B53:B54"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="B88:B89"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -33179,7 +36088,7 @@
   <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView showRuler="0" topLeftCell="A40" zoomScale="135" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A43" sqref="A43:B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -33446,161 +36355,175 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B43" s="10">
+      <c r="B43" s="9">
         <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B45" s="10">
+      <c r="B45" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B47" s="10">
+      <c r="B47" s="9">
         <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10"/>
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B49" s="10">
+      <c r="B49" s="9">
         <v>200</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="10"/>
-      <c r="B50" s="10"/>
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B51" s="10">
+      <c r="B51" s="9">
         <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="10"/>
-      <c r="B52" s="10"/>
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="11" t="s">
+      <c r="A77" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B77" s="10">
+      <c r="B77" s="9">
         <v>390</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="11"/>
-      <c r="B78" s="10"/>
+      <c r="A78" s="10"/>
+      <c r="B78" s="9"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="11" t="s">
+      <c r="A79" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B79" s="10">
+      <c r="B79" s="9">
         <v>100</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="11"/>
-      <c r="B80" s="10"/>
+      <c r="A80" s="10"/>
+      <c r="B80" s="9"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="11" t="s">
+      <c r="A81" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B81" s="10">
+      <c r="B81" s="9">
         <f>462*2</f>
         <v>924</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="11"/>
-      <c r="B82" s="10"/>
+      <c r="A82" s="10"/>
+      <c r="B82" s="9"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="11" t="s">
+      <c r="A83" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B83" s="10">
+      <c r="B83" s="9">
         <v>2160</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="11"/>
-      <c r="B84" s="10"/>
+      <c r="A84" s="10"/>
+      <c r="B84" s="9"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="11" t="s">
+      <c r="A85" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B85" s="10">
+      <c r="B85" s="9">
         <f>1155+90</f>
         <v>1245</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="11"/>
-      <c r="B86" s="10"/>
+      <c r="A86" s="10"/>
+      <c r="B86" s="9"/>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B97" s="10">
+      <c r="B97" s="9">
         <v>210</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B98" s="10"/>
+      <c r="B98" s="9"/>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B99" s="10">
+      <c r="B99" s="9">
         <v>140</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B100" s="10"/>
+      <c r="B100" s="9"/>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B101" s="10">
+      <c r="B101" s="9">
         <v>1430</v>
       </c>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B102" s="10"/>
+      <c r="B102" s="9"/>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B103" s="10">
+      <c r="B103" s="9">
         <v>630</v>
       </c>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B104" s="10"/>
+      <c r="B104" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
     <mergeCell ref="A49:A50"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="A51:A52"/>
@@ -33611,20 +36534,6 @@
     <mergeCell ref="B45:B46"/>
     <mergeCell ref="A47:A48"/>
     <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -33898,139 +36807,127 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="9">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="9">
         <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="9">
         <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="9">
         <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="9">
         <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="10">
+      <c r="B36" s="9">
         <v>600</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="11"/>
-      <c r="B37" s="10"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="9"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="10">
+      <c r="B38" s="9">
         <v>240</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="11"/>
-      <c r="B39" s="10"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="9"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B40" s="10">
+      <c r="B40" s="9">
         <v>2354</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="11"/>
-      <c r="B41" s="10"/>
+      <c r="A41" s="10"/>
+      <c r="B41" s="9"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B42" s="10">
+      <c r="B42" s="9">
         <v>3000</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="11"/>
-      <c r="B43" s="10"/>
+      <c r="A43" s="10"/>
+      <c r="B43" s="9"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B44" s="10">
+      <c r="B44" s="9">
         <v>2085</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="11"/>
-      <c r="B45" s="10"/>
+      <c r="A45" s="10"/>
+      <c r="B45" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
     <mergeCell ref="A44:A45"/>
     <mergeCell ref="B44:B45"/>
     <mergeCell ref="A38:A39"/>
@@ -34039,6 +36936,18 @@
     <mergeCell ref="B40:B41"/>
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="B42:B43"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -34049,8 +36958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="113" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView showRuler="0" topLeftCell="D37" zoomScale="113" workbookViewId="0">
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34361,131 +37270,141 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="10">
+      <c r="B38" s="9">
         <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B40" s="10">
+      <c r="B40" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B42" s="10">
+      <c r="B42" s="9">
         <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B44" s="10">
+      <c r="B44" s="9">
         <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="15"/>
-      <c r="B45" s="10"/>
+      <c r="A45" s="13"/>
+      <c r="B45" s="9"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B46" s="13">
+      <c r="B46" s="14">
         <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="10"/>
-      <c r="B47" s="13"/>
+      <c r="A47" s="9"/>
+      <c r="B47" s="14"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B75" s="10">
+      <c r="B75" s="9">
         <v>240</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B76" s="10"/>
+      <c r="B76" s="9"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="11" t="s">
+      <c r="A77" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B77" s="10">
+      <c r="B77" s="9">
         <v>60</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="11"/>
-      <c r="B78" s="10"/>
+      <c r="A78" s="10"/>
+      <c r="B78" s="9"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="11" t="s">
+      <c r="A79" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B79" s="10">
+      <c r="B79" s="9">
         <v>132</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="11"/>
-      <c r="B80" s="10"/>
+      <c r="A80" s="10"/>
+      <c r="B80" s="9"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="11" t="s">
+      <c r="A81" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B81" s="10">
+      <c r="B81" s="9">
         <v>795</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="11"/>
-      <c r="B82" s="10"/>
+      <c r="A82" s="10"/>
+      <c r="B82" s="9"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="11" t="s">
+      <c r="A83" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B83" s="13">
+      <c r="B83" s="14">
         <v>120</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="11"/>
-      <c r="B84" s="13"/>
+      <c r="A84" s="10"/>
+      <c r="B84" s="14"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="12" t="s">
+      <c r="A85" s="15" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="12"/>
+      <c r="A86" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B81:B82"/>
     <mergeCell ref="A46:A47"/>
     <mergeCell ref="B44:B45"/>
     <mergeCell ref="A38:A39"/>
@@ -34496,16 +37415,6 @@
     <mergeCell ref="B42:B43"/>
     <mergeCell ref="A44:A45"/>
     <mergeCell ref="B46:B47"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B81:B82"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -34517,155 +37426,155 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:L109"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="K96" sqref="K96:K97"/>
+    <sheetView showRuler="0" topLeftCell="G5" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="9">
         <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="9">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="9">
         <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="10">
-        <v>208</v>
+      <c r="B11" s="9">
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="9">
         <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B43" s="10">
+      <c r="B43" s="9">
         <v>1110</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="11"/>
-      <c r="B44" s="10"/>
+      <c r="A44" s="10"/>
+      <c r="B44" s="9"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B45" s="10">
+      <c r="B45" s="9">
         <v>500</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="11"/>
-      <c r="B46" s="10"/>
+      <c r="A46" s="10"/>
+      <c r="B46" s="9"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B47" s="10">
+      <c r="B47" s="9">
         <v>750</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="11"/>
-      <c r="B48" s="10"/>
+      <c r="A48" s="10"/>
+      <c r="B48" s="9"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B49" s="10">
+      <c r="B49" s="9">
         <v>5126</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="11"/>
-      <c r="B50" s="10"/>
+      <c r="A50" s="10"/>
+      <c r="B50" s="9"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B51" s="10">
+      <c r="B51" s="9">
         <v>2280</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="11"/>
-      <c r="B52" s="10"/>
+      <c r="A52" s="10"/>
+      <c r="B52" s="9"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="11" t="s">
+      <c r="A53" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B53" s="10">
+      <c r="B53" s="9">
         <v>3855</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="11"/>
-      <c r="B54" s="10"/>
+      <c r="A54" s="10"/>
+      <c r="B54" s="9"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
@@ -34852,39 +37761,39 @@
       </c>
     </row>
     <row r="94" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E94" s="18" t="s">
+      <c r="E94" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="F94" s="18" t="s">
+      <c r="F94" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="G94" s="18" t="s">
+      <c r="G94" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="H94" s="18" t="s">
+      <c r="H94" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="I94" s="18" t="s">
+      <c r="I94" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="J94" s="18" t="s">
+      <c r="J94" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="K94" s="20" t="s">
+      <c r="K94" s="22" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="95" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E95" s="18"/>
-      <c r="F95" s="18"/>
-      <c r="G95" s="18"/>
-      <c r="H95" s="18"/>
-      <c r="I95" s="18"/>
-      <c r="J95" s="18"/>
-      <c r="K95" s="20"/>
+      <c r="E95" s="20"/>
+      <c r="F95" s="20"/>
+      <c r="G95" s="20"/>
+      <c r="H95" s="20"/>
+      <c r="I95" s="20"/>
+      <c r="J95" s="20"/>
+      <c r="K95" s="22"/>
     </row>
     <row r="96" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E96" s="19" t="s">
+      <c r="E96" s="21" t="s">
         <v>0</v>
       </c>
       <c r="F96" s="16">
@@ -34902,25 +37811,25 @@
       <c r="J96" s="16">
         <v>22</v>
       </c>
-      <c r="K96" s="17">
+      <c r="K96" s="19">
         <v>31</v>
       </c>
     </row>
     <row r="97" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E97" s="19"/>
+      <c r="E97" s="21"/>
       <c r="F97" s="16"/>
       <c r="G97" s="16"/>
       <c r="H97" s="16"/>
       <c r="I97" s="16"/>
       <c r="J97" s="16"/>
-      <c r="K97" s="17"/>
+      <c r="K97" s="19"/>
       <c r="L97">
         <f>SUM(F96:K97)</f>
         <v>104</v>
       </c>
     </row>
     <row r="98" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E98" s="21" t="s">
+      <c r="E98" s="18" t="s">
         <v>24</v>
       </c>
       <c r="F98" s="16">
@@ -34938,25 +37847,25 @@
       <c r="J98" s="16">
         <v>16</v>
       </c>
-      <c r="K98" s="22">
+      <c r="K98" s="17">
         <v>46</v>
       </c>
     </row>
     <row r="99" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E99" s="21"/>
+      <c r="E99" s="18"/>
       <c r="F99" s="16"/>
       <c r="G99" s="16"/>
       <c r="H99" s="16"/>
       <c r="I99" s="16"/>
       <c r="J99" s="16"/>
-      <c r="K99" s="22"/>
+      <c r="K99" s="17"/>
       <c r="L99">
         <f>SUM(F98:K99)</f>
         <v>105</v>
       </c>
     </row>
     <row r="100" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E100" s="21" t="s">
+      <c r="E100" s="18" t="s">
         <v>25</v>
       </c>
       <c r="F100" s="16">
@@ -34974,25 +37883,25 @@
       <c r="J100" s="16">
         <v>19</v>
       </c>
-      <c r="K100" s="22">
+      <c r="K100" s="17">
         <v>40</v>
       </c>
     </row>
     <row r="101" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E101" s="21"/>
+      <c r="E101" s="18"/>
       <c r="F101" s="16"/>
       <c r="G101" s="16"/>
       <c r="H101" s="16"/>
       <c r="I101" s="16"/>
       <c r="J101" s="16"/>
-      <c r="K101" s="22"/>
+      <c r="K101" s="17"/>
       <c r="L101">
         <f>SUM(F100:K101)</f>
         <v>105</v>
       </c>
     </row>
     <row r="102" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E102" s="21" t="s">
+      <c r="E102" s="18" t="s">
         <v>26</v>
       </c>
       <c r="F102" s="16">
@@ -35010,25 +37919,25 @@
       <c r="J102" s="16">
         <v>17</v>
       </c>
-      <c r="K102" s="22">
+      <c r="K102" s="17">
         <v>32</v>
       </c>
     </row>
     <row r="103" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E103" s="21"/>
+      <c r="E103" s="18"/>
       <c r="F103" s="16"/>
       <c r="G103" s="16"/>
       <c r="H103" s="16"/>
       <c r="I103" s="16"/>
       <c r="J103" s="16"/>
-      <c r="K103" s="22"/>
+      <c r="K103" s="17"/>
       <c r="L103">
         <f>SUM(F102:K103)</f>
         <v>105</v>
       </c>
     </row>
     <row r="104" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E104" s="21" t="s">
+      <c r="E104" s="18" t="s">
         <v>27</v>
       </c>
       <c r="F104" s="16">
@@ -35046,25 +37955,25 @@
       <c r="J104" s="16">
         <v>26</v>
       </c>
-      <c r="K104" s="22">
+      <c r="K104" s="17">
         <v>49</v>
       </c>
     </row>
     <row r="105" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E105" s="21"/>
+      <c r="E105" s="18"/>
       <c r="F105" s="16"/>
       <c r="G105" s="16"/>
       <c r="H105" s="16"/>
       <c r="I105" s="16"/>
       <c r="J105" s="16"/>
-      <c r="K105" s="22"/>
+      <c r="K105" s="17"/>
       <c r="L105">
         <f>SUM(F104:K105)</f>
         <v>105</v>
       </c>
     </row>
     <row r="106" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E106" s="21" t="s">
+      <c r="E106" s="18" t="s">
         <v>28</v>
       </c>
       <c r="F106" s="16">
@@ -35082,25 +37991,25 @@
       <c r="J106" s="16">
         <v>26</v>
       </c>
-      <c r="K106" s="22">
+      <c r="K106" s="17">
         <v>40</v>
       </c>
     </row>
     <row r="107" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E107" s="21"/>
+      <c r="E107" s="18"/>
       <c r="F107" s="16"/>
       <c r="G107" s="16"/>
       <c r="H107" s="16"/>
       <c r="I107" s="16"/>
       <c r="J107" s="16"/>
-      <c r="K107" s="22"/>
+      <c r="K107" s="17"/>
       <c r="L107">
         <f>SUM(F106:K107)</f>
         <v>105</v>
       </c>
     </row>
     <row r="108" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E108" s="21" t="s">
+      <c r="E108" s="18" t="s">
         <v>29</v>
       </c>
       <c r="F108" s="16">
@@ -35118,18 +38027,18 @@
       <c r="J108" s="16">
         <v>22</v>
       </c>
-      <c r="K108" s="22">
+      <c r="K108" s="17">
         <v>27</v>
       </c>
     </row>
     <row r="109" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E109" s="21"/>
+      <c r="E109" s="18"/>
       <c r="F109" s="16"/>
       <c r="G109" s="16"/>
       <c r="H109" s="16"/>
       <c r="I109" s="16"/>
       <c r="J109" s="16"/>
-      <c r="K109" s="22"/>
+      <c r="K109" s="17"/>
       <c r="L109">
         <f>SUM(F108:K109)</f>
         <v>105</v>
@@ -35137,48 +38046,30 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="J102:J103"/>
-    <mergeCell ref="K102:K103"/>
-    <mergeCell ref="J100:J101"/>
-    <mergeCell ref="K100:K101"/>
-    <mergeCell ref="J98:J99"/>
-    <mergeCell ref="K98:K99"/>
-    <mergeCell ref="J108:J109"/>
-    <mergeCell ref="K108:K109"/>
-    <mergeCell ref="J106:J107"/>
-    <mergeCell ref="K106:K107"/>
-    <mergeCell ref="J104:J105"/>
-    <mergeCell ref="K104:K105"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="F108:F109"/>
-    <mergeCell ref="G108:G109"/>
-    <mergeCell ref="H108:H109"/>
-    <mergeCell ref="I108:I109"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="F106:F107"/>
-    <mergeCell ref="G106:G107"/>
-    <mergeCell ref="H106:H107"/>
-    <mergeCell ref="I106:I107"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="F104:F105"/>
-    <mergeCell ref="G104:G105"/>
-    <mergeCell ref="H104:H105"/>
-    <mergeCell ref="I104:I105"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="F102:F103"/>
-    <mergeCell ref="G102:G103"/>
-    <mergeCell ref="H102:H103"/>
-    <mergeCell ref="I102:I103"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="F100:F101"/>
-    <mergeCell ref="G100:G101"/>
-    <mergeCell ref="H100:H101"/>
-    <mergeCell ref="I100:I101"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="G98:G99"/>
-    <mergeCell ref="H98:H99"/>
-    <mergeCell ref="I98:I99"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
     <mergeCell ref="J96:J97"/>
     <mergeCell ref="K96:K97"/>
     <mergeCell ref="H94:H95"/>
@@ -35193,30 +38084,48 @@
     <mergeCell ref="J94:J95"/>
     <mergeCell ref="K94:K95"/>
     <mergeCell ref="I96:I97"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="G98:G99"/>
+    <mergeCell ref="H98:H99"/>
+    <mergeCell ref="I98:I99"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="F100:F101"/>
+    <mergeCell ref="G100:G101"/>
+    <mergeCell ref="H100:H101"/>
+    <mergeCell ref="I100:I101"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="G102:G103"/>
+    <mergeCell ref="H102:H103"/>
+    <mergeCell ref="I102:I103"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="F104:F105"/>
+    <mergeCell ref="G104:G105"/>
+    <mergeCell ref="H104:H105"/>
+    <mergeCell ref="I104:I105"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="G106:G107"/>
+    <mergeCell ref="H106:H107"/>
+    <mergeCell ref="I106:I107"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="F108:F109"/>
+    <mergeCell ref="G108:G109"/>
+    <mergeCell ref="H108:H109"/>
+    <mergeCell ref="I108:I109"/>
+    <mergeCell ref="J108:J109"/>
+    <mergeCell ref="K108:K109"/>
+    <mergeCell ref="J106:J107"/>
+    <mergeCell ref="K106:K107"/>
+    <mergeCell ref="J104:J105"/>
+    <mergeCell ref="K104:K105"/>
+    <mergeCell ref="J102:J103"/>
+    <mergeCell ref="K102:K103"/>
+    <mergeCell ref="J100:J101"/>
+    <mergeCell ref="K100:K101"/>
+    <mergeCell ref="J98:J99"/>
+    <mergeCell ref="K98:K99"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
